--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/marco_barion_han_nl/Documents/ADP Grading scheme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\I-ASD-ADP-23-24-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{16660C59-2BD0-FF45-B00C-BAC9A9430B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C40F69D-6340-7343-9533-532FFA7F8439}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983CB51B-6B3F-44DC-8AC8-4CF759B9B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30980" yWindow="500" windowWidth="26080" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADP B_Impl" sheetId="2" r:id="rId1"/>
@@ -644,22 +644,22 @@
   <dimension ref="A1:Y1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="88.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -799,7 +799,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -830,7 +830,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -898,7 +898,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -929,7 +929,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -997,7 +997,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1028,7 +1028,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1059,7 +1059,7 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1230,7 +1230,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1261,7 +1261,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
     </row>
-    <row r="21" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1403,7 +1403,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1434,7 +1434,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1504,7 +1504,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1535,7 +1535,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1566,7 +1566,7 @@
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1737,7 +1737,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1768,7 +1768,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
     </row>
-    <row r="35" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
     </row>
-    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1910,7 +1910,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1941,7 +1941,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
@@ -2011,7 +2011,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2042,7 +2042,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2073,7 +2073,7 @@
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>5</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
     </row>
-    <row r="46" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2244,7 +2244,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2275,7 +2275,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
     </row>
-    <row r="50" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>29</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
     </row>
-    <row r="51" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2417,7 +2417,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2448,7 +2448,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
-    <row r="54" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
@@ -2518,7 +2518,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2549,7 +2549,7 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
     </row>
-    <row r="57" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2580,7 +2580,7 @@
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>6</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2751,7 +2751,7 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="63" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2782,7 +2782,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
     </row>
-    <row r="64" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
     </row>
-    <row r="65" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>29</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="X65" s="15"/>
       <c r="Y65" s="15"/>
     </row>
-    <row r="66" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2924,7 +2924,7 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2955,7 +2955,7 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
@@ -3025,7 +3025,7 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
     </row>
-    <row r="71" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3056,7 +3056,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
     </row>
-    <row r="72" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -3087,7 +3087,7 @@
       <c r="X72" s="18"/>
       <c r="Y72" s="18"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>7</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>3</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>4</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="X75" s="15"/>
       <c r="Y75" s="15"/>
     </row>
-    <row r="76" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3258,7 +3258,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3289,7 +3289,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>6</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="X79" s="15"/>
       <c r="Y79" s="15"/>
     </row>
-    <row r="80" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>29</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
     </row>
-    <row r="81" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>30</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3431,7 +3431,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3462,7 +3462,7 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>42</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
@@ -3532,7 +3532,7 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
     </row>
-    <row r="86" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3563,7 +3563,7 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
     </row>
-    <row r="87" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -3594,7 +3594,7 @@
       <c r="X87" s="18"/>
       <c r="Y87" s="18"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>8</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
     </row>
-    <row r="90" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>4</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
     </row>
-    <row r="91" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
     </row>
-    <row r="92" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3765,7 +3765,7 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
     </row>
-    <row r="93" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3796,7 +3796,7 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
     </row>
-    <row r="94" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="X94" s="15"/>
       <c r="Y94" s="15"/>
     </row>
-    <row r="95" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>29</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="X95" s="15"/>
       <c r="Y95" s="15"/>
     </row>
-    <row r="96" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3938,7 +3938,7 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3969,7 +3969,7 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
     </row>
-    <row r="99" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>42</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
     </row>
-    <row r="100" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
@@ -4039,7 +4039,7 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
     </row>
-    <row r="101" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4070,7 +4070,7 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
     </row>
-    <row r="102" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -4101,7 +4101,7 @@
       <c r="X102" s="18"/>
       <c r="Y102" s="18"/>
     </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>9</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>3</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
     </row>
-    <row r="106" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4272,7 +4272,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4303,7 +4303,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>6</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="X109" s="15"/>
       <c r="Y109" s="15"/>
     </row>
-    <row r="110" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>29</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="X110" s="15"/>
       <c r="Y110" s="15"/>
     </row>
-    <row r="111" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>30</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4445,7 +4445,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4476,7 +4476,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>42</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
     </row>
-    <row r="115" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
@@ -4546,7 +4546,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4577,7 +4577,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -4608,7 +4608,7 @@
       <c r="X117" s="18"/>
       <c r="Y117" s="18"/>
     </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>10</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="X118" s="6"/>
       <c r="Y118" s="7"/>
     </row>
-    <row r="119" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>3</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>4</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="X120" s="15"/>
       <c r="Y120" s="15"/>
     </row>
-    <row r="121" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
     </row>
-    <row r="122" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4779,7 +4779,7 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
     </row>
-    <row r="123" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4810,7 +4810,7 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
     </row>
-    <row r="124" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>6</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="X124" s="15"/>
       <c r="Y124" s="15"/>
     </row>
-    <row r="125" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>29</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="X125" s="15"/>
       <c r="Y125" s="15"/>
     </row>
-    <row r="126" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>30</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="X126" s="12"/>
       <c r="Y126" s="12"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4952,7 +4952,7 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
     </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4983,7 +4983,7 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
     </row>
-    <row r="129" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>42</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
     </row>
-    <row r="130" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
@@ -5053,7 +5053,7 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
     </row>
-    <row r="131" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -5084,7 +5084,7 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
     </row>
-    <row r="132" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -5115,7 +5115,7 @@
       <c r="X132" s="18"/>
       <c r="Y132" s="18"/>
     </row>
-    <row r="133" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>11</v>
       </c>
@@ -5146,7 +5146,7 @@
       <c r="X133" s="6"/>
       <c r="Y133" s="7"/>
     </row>
-    <row r="134" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>3</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
     </row>
-    <row r="135" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>4</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="X135" s="15"/>
       <c r="Y135" s="15"/>
     </row>
-    <row r="136" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>5</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
     </row>
-    <row r="137" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5286,7 +5286,7 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
     </row>
-    <row r="138" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5317,7 +5317,7 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
     </row>
-    <row r="139" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>6</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="X139" s="15"/>
       <c r="Y139" s="15"/>
     </row>
-    <row r="140" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>29</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="X140" s="15"/>
       <c r="Y140" s="15"/>
     </row>
-    <row r="141" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>30</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="X141" s="12"/>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5459,7 +5459,7 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5490,7 +5490,7 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
     </row>
-    <row r="144" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>42</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4" t="s">
@@ -5560,7 +5560,7 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
     </row>
-    <row r="146" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5591,7 +5591,7 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
     </row>
-    <row r="147" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -5622,7 +5622,7 @@
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
     </row>
-    <row r="148" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>12</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="X148" s="6"/>
       <c r="Y148" s="7"/>
     </row>
-    <row r="149" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>3</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
     </row>
-    <row r="150" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
     </row>
-    <row r="151" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
     </row>
-    <row r="152" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5793,7 +5793,7 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
     </row>
-    <row r="153" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5824,7 +5824,7 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
     </row>
-    <row r="154" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>6</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="X154" s="15"/>
       <c r="Y154" s="15"/>
     </row>
-    <row r="155" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>29</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="X155" s="15"/>
       <c r="Y155" s="15"/>
     </row>
-    <row r="156" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>30</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="X156" s="12"/>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5966,7 +5966,7 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5997,7 +5997,7 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
     </row>
-    <row r="159" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>42</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
@@ -6067,7 +6067,7 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
     </row>
-    <row r="161" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6098,7 +6098,7 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
     </row>
-    <row r="162" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -6129,7 +6129,7 @@
       <c r="X162" s="18"/>
       <c r="Y162" s="18"/>
     </row>
-    <row r="163" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>13</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="X163" s="6"/>
       <c r="Y163" s="7"/>
     </row>
-    <row r="164" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>3</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>4</v>
       </c>
@@ -6234,7 +6234,7 @@
       <c r="X165" s="15"/>
       <c r="Y165" s="15"/>
     </row>
-    <row r="166" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
     </row>
-    <row r="167" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6300,7 +6300,7 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
     </row>
-    <row r="168" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6331,7 +6331,7 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
     </row>
-    <row r="169" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="X169" s="15"/>
       <c r="Y169" s="15"/>
     </row>
-    <row r="170" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
         <v>29</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="X170" s="15"/>
       <c r="Y170" s="15"/>
     </row>
-    <row r="171" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>30</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6473,7 +6473,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
     </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6504,7 +6504,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
     </row>
-    <row r="174" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>42</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="X174" s="12"/>
       <c r="Y174" s="12"/>
     </row>
-    <row r="175" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4" t="s">
@@ -6574,7 +6574,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
     </row>
-    <row r="176" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6605,7 +6605,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -6636,7 +6636,7 @@
       <c r="X177" s="18"/>
       <c r="Y177" s="18"/>
     </row>
-    <row r="178" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>14</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="X178" s="6"/>
       <c r="Y178" s="7"/>
     </row>
-    <row r="179" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>3</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
     </row>
-    <row r="180" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="X180" s="15"/>
       <c r="Y180" s="15"/>
     </row>
-    <row r="181" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
     </row>
-    <row r="182" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6807,7 +6807,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
     </row>
-    <row r="183" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6838,7 +6838,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
     </row>
-    <row r="184" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>6</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="X184" s="15"/>
       <c r="Y184" s="15"/>
     </row>
-    <row r="185" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>29</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="X185" s="15"/>
       <c r="Y185" s="15"/>
     </row>
-    <row r="186" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>30</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6980,7 +6980,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7011,7 +7011,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
     </row>
-    <row r="189" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>42</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
     </row>
-    <row r="190" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
@@ -7081,7 +7081,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
     </row>
-    <row r="191" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7112,7 +7112,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
     </row>
-    <row r="192" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -7143,7 +7143,7 @@
       <c r="X192" s="18"/>
       <c r="Y192" s="18"/>
     </row>
-    <row r="193" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>15</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="X193" s="6"/>
       <c r="Y193" s="7"/>
     </row>
-    <row r="194" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>3</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
     </row>
-    <row r="195" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>4</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="X195" s="15"/>
       <c r="Y195" s="15"/>
     </row>
-    <row r="196" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>5</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
     </row>
-    <row r="197" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7314,7 +7314,7 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
     </row>
-    <row r="198" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7345,7 +7345,7 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
     </row>
-    <row r="199" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>6</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="X199" s="15"/>
       <c r="Y199" s="15"/>
     </row>
-    <row r="200" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>29</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="X200" s="15"/>
       <c r="Y200" s="15"/>
     </row>
-    <row r="201" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>30</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="X201" s="12"/>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7487,7 +7487,7 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
     </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7518,7 +7518,7 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
     </row>
-    <row r="204" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>42</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
@@ -7588,7 +7588,7 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
     </row>
-    <row r="206" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7619,7 +7619,7 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
     </row>
-    <row r="207" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -7650,7 +7650,7 @@
       <c r="X207" s="18"/>
       <c r="Y207" s="18"/>
     </row>
-    <row r="208" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>16</v>
       </c>
@@ -7681,7 +7681,7 @@
       <c r="X208" s="6"/>
       <c r="Y208" s="7"/>
     </row>
-    <row r="209" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>3</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
     </row>
-    <row r="210" spans="1:25" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:25" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
         <v>4</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="X210" s="15"/>
       <c r="Y210" s="15"/>
     </row>
-    <row r="211" spans="1:25" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
     </row>
-    <row r="212" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7821,7 +7821,7 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
     </row>
-    <row r="213" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7852,7 +7852,7 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
     </row>
-    <row r="214" spans="1:25" s="16" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:25" s="16" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
         <v>6</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="X214" s="15"/>
       <c r="Y214" s="15"/>
     </row>
-    <row r="215" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:25" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
         <v>29</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="X215" s="15"/>
       <c r="Y215" s="15"/>
     </row>
-    <row r="216" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
         <v>30</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="X216" s="12"/>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7994,7 +7994,7 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -8025,7 +8025,7 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
     </row>
-    <row r="219" spans="1:25" s="13" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:25" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
         <v>42</v>
       </c>
@@ -8062,7 +8062,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" spans="1:25" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:25" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
@@ -8095,7 +8095,7 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
     </row>
-    <row r="221" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:25" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -8126,7 +8126,7 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
     </row>
-    <row r="222" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
@@ -8157,7 +8157,7 @@
       <c r="X222" s="18"/>
       <c r="Y222" s="18"/>
     </row>
-    <row r="223" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -8184,7 +8184,7 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
     </row>
-    <row r="224" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -8211,7 +8211,7 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
     </row>
-    <row r="225" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -8246,7 +8246,7 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
     </row>
-    <row r="226" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -8273,7 +8273,7 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
     </row>
-    <row r="227" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -8300,7 +8300,7 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
     </row>
-    <row r="228" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -8327,7 +8327,7 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
     </row>
-    <row r="229" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -8354,7 +8354,7 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
     </row>
-    <row r="230" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -8381,7 +8381,7 @@
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
     </row>
-    <row r="231" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8408,7 +8408,7 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
     </row>
-    <row r="232" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8435,7 +8435,7 @@
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
     </row>
-    <row r="233" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8462,7 +8462,7 @@
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
     </row>
-    <row r="234" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8489,7 +8489,7 @@
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
     </row>
-    <row r="235" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8516,7 +8516,7 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
     </row>
-    <row r="236" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8543,7 +8543,7 @@
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
     </row>
-    <row r="237" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8570,7 +8570,7 @@
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
     </row>
-    <row r="238" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8597,7 +8597,7 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
     </row>
-    <row r="239" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8624,7 +8624,7 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
     </row>
-    <row r="240" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8651,7 +8651,7 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
     </row>
-    <row r="241" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8678,7 +8678,7 @@
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
     </row>
-    <row r="242" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8705,7 +8705,7 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
     </row>
-    <row r="243" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8732,7 +8732,7 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
     </row>
-    <row r="244" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8759,7 +8759,7 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
     </row>
-    <row r="245" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8786,7 +8786,7 @@
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
     </row>
-    <row r="246" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8813,7 +8813,7 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
     </row>
-    <row r="247" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8840,7 +8840,7 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
     </row>
-    <row r="248" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8867,7 +8867,7 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
     </row>
-    <row r="249" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8894,7 +8894,7 @@
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
     </row>
-    <row r="250" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8921,7 +8921,7 @@
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
     </row>
-    <row r="251" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8948,7 +8948,7 @@
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
     </row>
-    <row r="252" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8975,7 +8975,7 @@
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
     </row>
-    <row r="253" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -9002,7 +9002,7 @@
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
     </row>
-    <row r="254" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -9029,7 +9029,7 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
     </row>
-    <row r="255" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -9056,7 +9056,7 @@
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
     </row>
-    <row r="256" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -9083,7 +9083,7 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
     </row>
-    <row r="257" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -9110,7 +9110,7 @@
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
     </row>
-    <row r="258" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -9137,7 +9137,7 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
     </row>
-    <row r="259" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -9164,7 +9164,7 @@
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
     </row>
-    <row r="260" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -9191,7 +9191,7 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
     </row>
-    <row r="261" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -9218,7 +9218,7 @@
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
     </row>
-    <row r="262" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -9245,7 +9245,7 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
     </row>
-    <row r="263" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -9272,7 +9272,7 @@
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
     </row>
-    <row r="264" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -9299,7 +9299,7 @@
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
     </row>
-    <row r="265" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -9326,7 +9326,7 @@
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
     </row>
-    <row r="266" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -9353,7 +9353,7 @@
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
     </row>
-    <row r="267" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -9380,7 +9380,7 @@
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
     </row>
-    <row r="268" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -9407,7 +9407,7 @@
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
     </row>
-    <row r="269" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -9434,7 +9434,7 @@
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
     </row>
-    <row r="270" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9461,7 +9461,7 @@
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
     </row>
-    <row r="271" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -9488,7 +9488,7 @@
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
     </row>
-    <row r="272" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -9515,7 +9515,7 @@
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
     </row>
-    <row r="273" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9542,7 +9542,7 @@
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
     </row>
-    <row r="274" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9569,7 +9569,7 @@
       <c r="X274" s="4"/>
       <c r="Y274" s="4"/>
     </row>
-    <row r="275" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -9596,7 +9596,7 @@
       <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
     </row>
-    <row r="276" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -9623,7 +9623,7 @@
       <c r="X276" s="4"/>
       <c r="Y276" s="4"/>
     </row>
-    <row r="277" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -9650,7 +9650,7 @@
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
     </row>
-    <row r="278" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -9677,7 +9677,7 @@
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
     </row>
-    <row r="279" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -9704,7 +9704,7 @@
       <c r="X279" s="4"/>
       <c r="Y279" s="4"/>
     </row>
-    <row r="280" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -9731,7 +9731,7 @@
       <c r="X280" s="4"/>
       <c r="Y280" s="4"/>
     </row>
-    <row r="281" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -9758,7 +9758,7 @@
       <c r="X281" s="4"/>
       <c r="Y281" s="4"/>
     </row>
-    <row r="282" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -9785,7 +9785,7 @@
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
     </row>
-    <row r="283" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -9812,7 +9812,7 @@
       <c r="X283" s="4"/>
       <c r="Y283" s="4"/>
     </row>
-    <row r="284" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -9839,7 +9839,7 @@
       <c r="X284" s="4"/>
       <c r="Y284" s="4"/>
     </row>
-    <row r="285" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -9866,7 +9866,7 @@
       <c r="X285" s="4"/>
       <c r="Y285" s="4"/>
     </row>
-    <row r="286" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -9893,7 +9893,7 @@
       <c r="X286" s="4"/>
       <c r="Y286" s="4"/>
     </row>
-    <row r="287" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -9920,7 +9920,7 @@
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
     </row>
-    <row r="288" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -9947,7 +9947,7 @@
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
     </row>
-    <row r="289" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -9974,7 +9974,7 @@
       <c r="X289" s="4"/>
       <c r="Y289" s="4"/>
     </row>
-    <row r="290" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -10001,7 +10001,7 @@
       <c r="X290" s="4"/>
       <c r="Y290" s="4"/>
     </row>
-    <row r="291" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -10028,7 +10028,7 @@
       <c r="X291" s="4"/>
       <c r="Y291" s="4"/>
     </row>
-    <row r="292" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -10055,7 +10055,7 @@
       <c r="X292" s="4"/>
       <c r="Y292" s="4"/>
     </row>
-    <row r="293" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -10082,7 +10082,7 @@
       <c r="X293" s="4"/>
       <c r="Y293" s="4"/>
     </row>
-    <row r="294" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -10109,7 +10109,7 @@
       <c r="X294" s="4"/>
       <c r="Y294" s="4"/>
     </row>
-    <row r="295" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10136,7 +10136,7 @@
       <c r="X295" s="4"/>
       <c r="Y295" s="4"/>
     </row>
-    <row r="296" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10163,7 +10163,7 @@
       <c r="X296" s="4"/>
       <c r="Y296" s="4"/>
     </row>
-    <row r="297" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10190,7 +10190,7 @@
       <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
     </row>
-    <row r="298" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10217,7 +10217,7 @@
       <c r="X298" s="4"/>
       <c r="Y298" s="4"/>
     </row>
-    <row r="299" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10244,7 +10244,7 @@
       <c r="X299" s="4"/>
       <c r="Y299" s="4"/>
     </row>
-    <row r="300" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10271,7 +10271,7 @@
       <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
     </row>
-    <row r="301" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10298,7 +10298,7 @@
       <c r="X301" s="4"/>
       <c r="Y301" s="4"/>
     </row>
-    <row r="302" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10325,7 +10325,7 @@
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
     </row>
-    <row r="303" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10352,7 +10352,7 @@
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
     </row>
-    <row r="304" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10379,7 +10379,7 @@
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
     </row>
-    <row r="305" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10406,7 +10406,7 @@
       <c r="X305" s="4"/>
       <c r="Y305" s="4"/>
     </row>
-    <row r="306" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10433,7 +10433,7 @@
       <c r="X306" s="4"/>
       <c r="Y306" s="4"/>
     </row>
-    <row r="307" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10460,7 +10460,7 @@
       <c r="X307" s="4"/>
       <c r="Y307" s="4"/>
     </row>
-    <row r="308" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10487,7 +10487,7 @@
       <c r="X308" s="4"/>
       <c r="Y308" s="4"/>
     </row>
-    <row r="309" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10514,7 +10514,7 @@
       <c r="X309" s="4"/>
       <c r="Y309" s="4"/>
     </row>
-    <row r="310" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10541,7 +10541,7 @@
       <c r="X310" s="4"/>
       <c r="Y310" s="4"/>
     </row>
-    <row r="311" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10568,7 +10568,7 @@
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
     </row>
-    <row r="312" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10595,7 +10595,7 @@
       <c r="X312" s="4"/>
       <c r="Y312" s="4"/>
     </row>
-    <row r="313" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10622,7 +10622,7 @@
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
     </row>
-    <row r="314" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10649,7 +10649,7 @@
       <c r="X314" s="4"/>
       <c r="Y314" s="4"/>
     </row>
-    <row r="315" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10676,7 +10676,7 @@
       <c r="X315" s="4"/>
       <c r="Y315" s="4"/>
     </row>
-    <row r="316" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10703,7 +10703,7 @@
       <c r="X316" s="4"/>
       <c r="Y316" s="4"/>
     </row>
-    <row r="317" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10730,7 +10730,7 @@
       <c r="X317" s="4"/>
       <c r="Y317" s="4"/>
     </row>
-    <row r="318" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10757,7 +10757,7 @@
       <c r="X318" s="4"/>
       <c r="Y318" s="4"/>
     </row>
-    <row r="319" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10784,7 +10784,7 @@
       <c r="X319" s="4"/>
       <c r="Y319" s="4"/>
     </row>
-    <row r="320" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10811,7 +10811,7 @@
       <c r="X320" s="4"/>
       <c r="Y320" s="4"/>
     </row>
-    <row r="321" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -10838,7 +10838,7 @@
       <c r="X321" s="4"/>
       <c r="Y321" s="4"/>
     </row>
-    <row r="322" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -10865,7 +10865,7 @@
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
     </row>
-    <row r="323" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -10892,7 +10892,7 @@
       <c r="X323" s="4"/>
       <c r="Y323" s="4"/>
     </row>
-    <row r="324" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -10919,7 +10919,7 @@
       <c r="X324" s="4"/>
       <c r="Y324" s="4"/>
     </row>
-    <row r="325" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -10946,7 +10946,7 @@
       <c r="X325" s="4"/>
       <c r="Y325" s="4"/>
     </row>
-    <row r="326" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -10973,7 +10973,7 @@
       <c r="X326" s="4"/>
       <c r="Y326" s="4"/>
     </row>
-    <row r="327" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11000,7 +11000,7 @@
       <c r="X327" s="4"/>
       <c r="Y327" s="4"/>
     </row>
-    <row r="328" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11027,7 +11027,7 @@
       <c r="X328" s="4"/>
       <c r="Y328" s="4"/>
     </row>
-    <row r="329" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -11054,7 +11054,7 @@
       <c r="X329" s="4"/>
       <c r="Y329" s="4"/>
     </row>
-    <row r="330" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -11081,7 +11081,7 @@
       <c r="X330" s="4"/>
       <c r="Y330" s="4"/>
     </row>
-    <row r="331" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -11108,7 +11108,7 @@
       <c r="X331" s="4"/>
       <c r="Y331" s="4"/>
     </row>
-    <row r="332" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -11135,7 +11135,7 @@
       <c r="X332" s="4"/>
       <c r="Y332" s="4"/>
     </row>
-    <row r="333" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -11162,7 +11162,7 @@
       <c r="X333" s="4"/>
       <c r="Y333" s="4"/>
     </row>
-    <row r="334" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -11189,7 +11189,7 @@
       <c r="X334" s="4"/>
       <c r="Y334" s="4"/>
     </row>
-    <row r="335" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -11216,7 +11216,7 @@
       <c r="X335" s="4"/>
       <c r="Y335" s="4"/>
     </row>
-    <row r="336" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -11243,7 +11243,7 @@
       <c r="X336" s="4"/>
       <c r="Y336" s="4"/>
     </row>
-    <row r="337" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11270,7 +11270,7 @@
       <c r="X337" s="4"/>
       <c r="Y337" s="4"/>
     </row>
-    <row r="338" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11297,7 +11297,7 @@
       <c r="X338" s="4"/>
       <c r="Y338" s="4"/>
     </row>
-    <row r="339" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11324,7 +11324,7 @@
       <c r="X339" s="4"/>
       <c r="Y339" s="4"/>
     </row>
-    <row r="340" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11351,7 +11351,7 @@
       <c r="X340" s="4"/>
       <c r="Y340" s="4"/>
     </row>
-    <row r="341" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11378,7 +11378,7 @@
       <c r="X341" s="4"/>
       <c r="Y341" s="4"/>
     </row>
-    <row r="342" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11405,7 +11405,7 @@
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
     </row>
-    <row r="343" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11432,7 +11432,7 @@
       <c r="X343" s="4"/>
       <c r="Y343" s="4"/>
     </row>
-    <row r="344" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11459,7 +11459,7 @@
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
     </row>
-    <row r="345" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11486,7 +11486,7 @@
       <c r="X345" s="4"/>
       <c r="Y345" s="4"/>
     </row>
-    <row r="346" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11513,7 +11513,7 @@
       <c r="X346" s="4"/>
       <c r="Y346" s="4"/>
     </row>
-    <row r="347" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11540,7 +11540,7 @@
       <c r="X347" s="4"/>
       <c r="Y347" s="4"/>
     </row>
-    <row r="348" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11567,7 +11567,7 @@
       <c r="X348" s="4"/>
       <c r="Y348" s="4"/>
     </row>
-    <row r="349" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11594,7 +11594,7 @@
       <c r="X349" s="4"/>
       <c r="Y349" s="4"/>
     </row>
-    <row r="350" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11621,7 +11621,7 @@
       <c r="X350" s="4"/>
       <c r="Y350" s="4"/>
     </row>
-    <row r="351" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11648,7 +11648,7 @@
       <c r="X351" s="4"/>
       <c r="Y351" s="4"/>
     </row>
-    <row r="352" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11675,7 +11675,7 @@
       <c r="X352" s="4"/>
       <c r="Y352" s="4"/>
     </row>
-    <row r="353" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11702,7 +11702,7 @@
       <c r="X353" s="4"/>
       <c r="Y353" s="4"/>
     </row>
-    <row r="354" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11729,7 +11729,7 @@
       <c r="X354" s="4"/>
       <c r="Y354" s="4"/>
     </row>
-    <row r="355" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11756,7 +11756,7 @@
       <c r="X355" s="4"/>
       <c r="Y355" s="4"/>
     </row>
-    <row r="356" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11783,7 +11783,7 @@
       <c r="X356" s="4"/>
       <c r="Y356" s="4"/>
     </row>
-    <row r="357" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11810,7 +11810,7 @@
       <c r="X357" s="4"/>
       <c r="Y357" s="4"/>
     </row>
-    <row r="358" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11837,7 +11837,7 @@
       <c r="X358" s="4"/>
       <c r="Y358" s="4"/>
     </row>
-    <row r="359" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11864,7 +11864,7 @@
       <c r="X359" s="4"/>
       <c r="Y359" s="4"/>
     </row>
-    <row r="360" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11891,7 +11891,7 @@
       <c r="X360" s="4"/>
       <c r="Y360" s="4"/>
     </row>
-    <row r="361" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -11918,7 +11918,7 @@
       <c r="X361" s="4"/>
       <c r="Y361" s="4"/>
     </row>
-    <row r="362" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -11945,7 +11945,7 @@
       <c r="X362" s="4"/>
       <c r="Y362" s="4"/>
     </row>
-    <row r="363" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -11972,7 +11972,7 @@
       <c r="X363" s="4"/>
       <c r="Y363" s="4"/>
     </row>
-    <row r="364" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -11999,7 +11999,7 @@
       <c r="X364" s="4"/>
       <c r="Y364" s="4"/>
     </row>
-    <row r="365" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12026,7 +12026,7 @@
       <c r="X365" s="4"/>
       <c r="Y365" s="4"/>
     </row>
-    <row r="366" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12053,7 +12053,7 @@
       <c r="X366" s="4"/>
       <c r="Y366" s="4"/>
     </row>
-    <row r="367" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -12080,7 +12080,7 @@
       <c r="X367" s="4"/>
       <c r="Y367" s="4"/>
     </row>
-    <row r="368" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -12107,7 +12107,7 @@
       <c r="X368" s="4"/>
       <c r="Y368" s="4"/>
     </row>
-    <row r="369" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -12134,7 +12134,7 @@
       <c r="X369" s="4"/>
       <c r="Y369" s="4"/>
     </row>
-    <row r="370" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12161,7 +12161,7 @@
       <c r="X370" s="4"/>
       <c r="Y370" s="4"/>
     </row>
-    <row r="371" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12188,7 +12188,7 @@
       <c r="X371" s="4"/>
       <c r="Y371" s="4"/>
     </row>
-    <row r="372" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12215,7 +12215,7 @@
       <c r="X372" s="4"/>
       <c r="Y372" s="4"/>
     </row>
-    <row r="373" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12242,7 +12242,7 @@
       <c r="X373" s="4"/>
       <c r="Y373" s="4"/>
     </row>
-    <row r="374" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12269,7 +12269,7 @@
       <c r="X374" s="4"/>
       <c r="Y374" s="4"/>
     </row>
-    <row r="375" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12296,7 +12296,7 @@
       <c r="X375" s="4"/>
       <c r="Y375" s="4"/>
     </row>
-    <row r="376" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12323,7 +12323,7 @@
       <c r="X376" s="4"/>
       <c r="Y376" s="4"/>
     </row>
-    <row r="377" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12350,7 +12350,7 @@
       <c r="X377" s="4"/>
       <c r="Y377" s="4"/>
     </row>
-    <row r="378" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12377,7 +12377,7 @@
       <c r="X378" s="4"/>
       <c r="Y378" s="4"/>
     </row>
-    <row r="379" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12404,7 +12404,7 @@
       <c r="X379" s="4"/>
       <c r="Y379" s="4"/>
     </row>
-    <row r="380" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12431,7 +12431,7 @@
       <c r="X380" s="4"/>
       <c r="Y380" s="4"/>
     </row>
-    <row r="381" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12458,7 +12458,7 @@
       <c r="X381" s="4"/>
       <c r="Y381" s="4"/>
     </row>
-    <row r="382" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12485,7 +12485,7 @@
       <c r="X382" s="4"/>
       <c r="Y382" s="4"/>
     </row>
-    <row r="383" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12512,7 +12512,7 @@
       <c r="X383" s="4"/>
       <c r="Y383" s="4"/>
     </row>
-    <row r="384" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12539,7 +12539,7 @@
       <c r="X384" s="4"/>
       <c r="Y384" s="4"/>
     </row>
-    <row r="385" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12566,7 +12566,7 @@
       <c r="X385" s="4"/>
       <c r="Y385" s="4"/>
     </row>
-    <row r="386" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12593,7 +12593,7 @@
       <c r="X386" s="4"/>
       <c r="Y386" s="4"/>
     </row>
-    <row r="387" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12620,7 +12620,7 @@
       <c r="X387" s="4"/>
       <c r="Y387" s="4"/>
     </row>
-    <row r="388" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12647,7 +12647,7 @@
       <c r="X388" s="4"/>
       <c r="Y388" s="4"/>
     </row>
-    <row r="389" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12674,7 +12674,7 @@
       <c r="X389" s="4"/>
       <c r="Y389" s="4"/>
     </row>
-    <row r="390" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12701,7 +12701,7 @@
       <c r="X390" s="4"/>
       <c r="Y390" s="4"/>
     </row>
-    <row r="391" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12728,7 +12728,7 @@
       <c r="X391" s="4"/>
       <c r="Y391" s="4"/>
     </row>
-    <row r="392" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -12755,7 +12755,7 @@
       <c r="X392" s="4"/>
       <c r="Y392" s="4"/>
     </row>
-    <row r="393" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -12782,7 +12782,7 @@
       <c r="X393" s="4"/>
       <c r="Y393" s="4"/>
     </row>
-    <row r="394" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -12809,7 +12809,7 @@
       <c r="X394" s="4"/>
       <c r="Y394" s="4"/>
     </row>
-    <row r="395" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -12836,7 +12836,7 @@
       <c r="X395" s="4"/>
       <c r="Y395" s="4"/>
     </row>
-    <row r="396" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -12863,7 +12863,7 @@
       <c r="X396" s="4"/>
       <c r="Y396" s="4"/>
     </row>
-    <row r="397" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -12890,7 +12890,7 @@
       <c r="X397" s="4"/>
       <c r="Y397" s="4"/>
     </row>
-    <row r="398" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -12917,7 +12917,7 @@
       <c r="X398" s="4"/>
       <c r="Y398" s="4"/>
     </row>
-    <row r="399" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -12944,7 +12944,7 @@
       <c r="X399" s="4"/>
       <c r="Y399" s="4"/>
     </row>
-    <row r="400" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -12971,7 +12971,7 @@
       <c r="X400" s="4"/>
       <c r="Y400" s="4"/>
     </row>
-    <row r="401" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -12998,7 +12998,7 @@
       <c r="X401" s="4"/>
       <c r="Y401" s="4"/>
     </row>
-    <row r="402" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -13025,7 +13025,7 @@
       <c r="X402" s="4"/>
       <c r="Y402" s="4"/>
     </row>
-    <row r="403" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -13052,7 +13052,7 @@
       <c r="X403" s="4"/>
       <c r="Y403" s="4"/>
     </row>
-    <row r="404" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -13079,7 +13079,7 @@
       <c r="X404" s="4"/>
       <c r="Y404" s="4"/>
     </row>
-    <row r="405" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -13106,7 +13106,7 @@
       <c r="X405" s="4"/>
       <c r="Y405" s="4"/>
     </row>
-    <row r="406" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13133,7 +13133,7 @@
       <c r="X406" s="4"/>
       <c r="Y406" s="4"/>
     </row>
-    <row r="407" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13160,7 +13160,7 @@
       <c r="X407" s="4"/>
       <c r="Y407" s="4"/>
     </row>
-    <row r="408" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13187,7 +13187,7 @@
       <c r="X408" s="4"/>
       <c r="Y408" s="4"/>
     </row>
-    <row r="409" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13214,7 +13214,7 @@
       <c r="X409" s="4"/>
       <c r="Y409" s="4"/>
     </row>
-    <row r="410" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13241,7 +13241,7 @@
       <c r="X410" s="4"/>
       <c r="Y410" s="4"/>
     </row>
-    <row r="411" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13268,7 +13268,7 @@
       <c r="X411" s="4"/>
       <c r="Y411" s="4"/>
     </row>
-    <row r="412" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13295,7 +13295,7 @@
       <c r="X412" s="4"/>
       <c r="Y412" s="4"/>
     </row>
-    <row r="413" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13322,7 +13322,7 @@
       <c r="X413" s="4"/>
       <c r="Y413" s="4"/>
     </row>
-    <row r="414" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13349,7 +13349,7 @@
       <c r="X414" s="4"/>
       <c r="Y414" s="4"/>
     </row>
-    <row r="415" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13376,7 +13376,7 @@
       <c r="X415" s="4"/>
       <c r="Y415" s="4"/>
     </row>
-    <row r="416" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13403,7 +13403,7 @@
       <c r="X416" s="4"/>
       <c r="Y416" s="4"/>
     </row>
-    <row r="417" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13430,7 +13430,7 @@
       <c r="X417" s="4"/>
       <c r="Y417" s="4"/>
     </row>
-    <row r="418" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13457,7 +13457,7 @@
       <c r="X418" s="4"/>
       <c r="Y418" s="4"/>
     </row>
-    <row r="419" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13484,7 +13484,7 @@
       <c r="X419" s="4"/>
       <c r="Y419" s="4"/>
     </row>
-    <row r="420" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13511,7 +13511,7 @@
       <c r="X420" s="4"/>
       <c r="Y420" s="4"/>
     </row>
-    <row r="421" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13538,7 +13538,7 @@
       <c r="X421" s="4"/>
       <c r="Y421" s="4"/>
     </row>
-    <row r="422" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13565,7 +13565,7 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
     </row>
-    <row r="423" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -13592,7 +13592,7 @@
       <c r="X423" s="4"/>
       <c r="Y423" s="4"/>
     </row>
-    <row r="424" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -13619,7 +13619,7 @@
       <c r="X424" s="4"/>
       <c r="Y424" s="4"/>
     </row>
-    <row r="425" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -13646,7 +13646,7 @@
       <c r="X425" s="4"/>
       <c r="Y425" s="4"/>
     </row>
-    <row r="426" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -13673,7 +13673,7 @@
       <c r="X426" s="4"/>
       <c r="Y426" s="4"/>
     </row>
-    <row r="427" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -13700,7 +13700,7 @@
       <c r="X427" s="4"/>
       <c r="Y427" s="4"/>
     </row>
-    <row r="428" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -13727,7 +13727,7 @@
       <c r="X428" s="4"/>
       <c r="Y428" s="4"/>
     </row>
-    <row r="429" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13754,7 +13754,7 @@
       <c r="X429" s="4"/>
       <c r="Y429" s="4"/>
     </row>
-    <row r="430" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -13781,7 +13781,7 @@
       <c r="X430" s="4"/>
       <c r="Y430" s="4"/>
     </row>
-    <row r="431" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -13808,7 +13808,7 @@
       <c r="X431" s="4"/>
       <c r="Y431" s="4"/>
     </row>
-    <row r="432" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -13835,7 +13835,7 @@
       <c r="X432" s="4"/>
       <c r="Y432" s="4"/>
     </row>
-    <row r="433" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -13862,7 +13862,7 @@
       <c r="X433" s="4"/>
       <c r="Y433" s="4"/>
     </row>
-    <row r="434" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -13889,7 +13889,7 @@
       <c r="X434" s="4"/>
       <c r="Y434" s="4"/>
     </row>
-    <row r="435" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -13916,7 +13916,7 @@
       <c r="X435" s="4"/>
       <c r="Y435" s="4"/>
     </row>
-    <row r="436" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -13943,7 +13943,7 @@
       <c r="X436" s="4"/>
       <c r="Y436" s="4"/>
     </row>
-    <row r="437" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -13970,7 +13970,7 @@
       <c r="X437" s="4"/>
       <c r="Y437" s="4"/>
     </row>
-    <row r="438" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -13997,7 +13997,7 @@
       <c r="X438" s="4"/>
       <c r="Y438" s="4"/>
     </row>
-    <row r="439" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -14024,7 +14024,7 @@
       <c r="X439" s="4"/>
       <c r="Y439" s="4"/>
     </row>
-    <row r="440" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -14051,7 +14051,7 @@
       <c r="X440" s="4"/>
       <c r="Y440" s="4"/>
     </row>
-    <row r="441" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -14078,7 +14078,7 @@
       <c r="X441" s="4"/>
       <c r="Y441" s="4"/>
     </row>
-    <row r="442" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -14105,7 +14105,7 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
     </row>
-    <row r="443" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -14132,7 +14132,7 @@
       <c r="X443" s="4"/>
       <c r="Y443" s="4"/>
     </row>
-    <row r="444" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -14159,7 +14159,7 @@
       <c r="X444" s="4"/>
       <c r="Y444" s="4"/>
     </row>
-    <row r="445" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -14186,7 +14186,7 @@
       <c r="X445" s="4"/>
       <c r="Y445" s="4"/>
     </row>
-    <row r="446" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -14213,7 +14213,7 @@
       <c r="X446" s="4"/>
       <c r="Y446" s="4"/>
     </row>
-    <row r="447" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14240,7 +14240,7 @@
       <c r="X447" s="4"/>
       <c r="Y447" s="4"/>
     </row>
-    <row r="448" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -14267,7 +14267,7 @@
       <c r="X448" s="4"/>
       <c r="Y448" s="4"/>
     </row>
-    <row r="449" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -14294,7 +14294,7 @@
       <c r="X449" s="4"/>
       <c r="Y449" s="4"/>
     </row>
-    <row r="450" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14321,7 +14321,7 @@
       <c r="X450" s="4"/>
       <c r="Y450" s="4"/>
     </row>
-    <row r="451" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -14348,7 +14348,7 @@
       <c r="X451" s="4"/>
       <c r="Y451" s="4"/>
     </row>
-    <row r="452" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -14375,7 +14375,7 @@
       <c r="X452" s="4"/>
       <c r="Y452" s="4"/>
     </row>
-    <row r="453" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14402,7 +14402,7 @@
       <c r="X453" s="4"/>
       <c r="Y453" s="4"/>
     </row>
-    <row r="454" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14429,7 +14429,7 @@
       <c r="X454" s="4"/>
       <c r="Y454" s="4"/>
     </row>
-    <row r="455" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -14456,7 +14456,7 @@
       <c r="X455" s="4"/>
       <c r="Y455" s="4"/>
     </row>
-    <row r="456" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -14483,7 +14483,7 @@
       <c r="X456" s="4"/>
       <c r="Y456" s="4"/>
     </row>
-    <row r="457" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -14510,7 +14510,7 @@
       <c r="X457" s="4"/>
       <c r="Y457" s="4"/>
     </row>
-    <row r="458" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -14537,7 +14537,7 @@
       <c r="X458" s="4"/>
       <c r="Y458" s="4"/>
     </row>
-    <row r="459" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -14564,7 +14564,7 @@
       <c r="X459" s="4"/>
       <c r="Y459" s="4"/>
     </row>
-    <row r="460" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -14591,7 +14591,7 @@
       <c r="X460" s="4"/>
       <c r="Y460" s="4"/>
     </row>
-    <row r="461" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -14618,7 +14618,7 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
     </row>
-    <row r="462" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14645,7 +14645,7 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
     </row>
-    <row r="463" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -14672,7 +14672,7 @@
       <c r="X463" s="4"/>
       <c r="Y463" s="4"/>
     </row>
-    <row r="464" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -14699,7 +14699,7 @@
       <c r="X464" s="4"/>
       <c r="Y464" s="4"/>
     </row>
-    <row r="465" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -14726,7 +14726,7 @@
       <c r="X465" s="4"/>
       <c r="Y465" s="4"/>
     </row>
-    <row r="466" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14753,7 +14753,7 @@
       <c r="X466" s="4"/>
       <c r="Y466" s="4"/>
     </row>
-    <row r="467" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -14780,7 +14780,7 @@
       <c r="X467" s="4"/>
       <c r="Y467" s="4"/>
     </row>
-    <row r="468" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -14807,7 +14807,7 @@
       <c r="X468" s="4"/>
       <c r="Y468" s="4"/>
     </row>
-    <row r="469" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -14834,7 +14834,7 @@
       <c r="X469" s="4"/>
       <c r="Y469" s="4"/>
     </row>
-    <row r="470" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -14861,7 +14861,7 @@
       <c r="X470" s="4"/>
       <c r="Y470" s="4"/>
     </row>
-    <row r="471" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -14888,7 +14888,7 @@
       <c r="X471" s="4"/>
       <c r="Y471" s="4"/>
     </row>
-    <row r="472" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -14915,7 +14915,7 @@
       <c r="X472" s="4"/>
       <c r="Y472" s="4"/>
     </row>
-    <row r="473" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -14942,7 +14942,7 @@
       <c r="X473" s="4"/>
       <c r="Y473" s="4"/>
     </row>
-    <row r="474" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -14969,7 +14969,7 @@
       <c r="X474" s="4"/>
       <c r="Y474" s="4"/>
     </row>
-    <row r="475" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -14996,7 +14996,7 @@
       <c r="X475" s="4"/>
       <c r="Y475" s="4"/>
     </row>
-    <row r="476" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -15023,7 +15023,7 @@
       <c r="X476" s="4"/>
       <c r="Y476" s="4"/>
     </row>
-    <row r="477" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -15050,7 +15050,7 @@
       <c r="X477" s="4"/>
       <c r="Y477" s="4"/>
     </row>
-    <row r="478" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -15077,7 +15077,7 @@
       <c r="X478" s="4"/>
       <c r="Y478" s="4"/>
     </row>
-    <row r="479" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -15104,7 +15104,7 @@
       <c r="X479" s="4"/>
       <c r="Y479" s="4"/>
     </row>
-    <row r="480" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -15131,7 +15131,7 @@
       <c r="X480" s="4"/>
       <c r="Y480" s="4"/>
     </row>
-    <row r="481" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -15158,7 +15158,7 @@
       <c r="X481" s="4"/>
       <c r="Y481" s="4"/>
     </row>
-    <row r="482" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -15185,7 +15185,7 @@
       <c r="X482" s="4"/>
       <c r="Y482" s="4"/>
     </row>
-    <row r="483" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -15212,7 +15212,7 @@
       <c r="X483" s="4"/>
       <c r="Y483" s="4"/>
     </row>
-    <row r="484" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -15239,7 +15239,7 @@
       <c r="X484" s="4"/>
       <c r="Y484" s="4"/>
     </row>
-    <row r="485" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -15266,7 +15266,7 @@
       <c r="X485" s="4"/>
       <c r="Y485" s="4"/>
     </row>
-    <row r="486" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -15293,7 +15293,7 @@
       <c r="X486" s="4"/>
       <c r="Y486" s="4"/>
     </row>
-    <row r="487" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -15320,7 +15320,7 @@
       <c r="X487" s="4"/>
       <c r="Y487" s="4"/>
     </row>
-    <row r="488" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -15347,7 +15347,7 @@
       <c r="X488" s="4"/>
       <c r="Y488" s="4"/>
     </row>
-    <row r="489" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -15374,7 +15374,7 @@
       <c r="X489" s="4"/>
       <c r="Y489" s="4"/>
     </row>
-    <row r="490" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -15401,7 +15401,7 @@
       <c r="X490" s="4"/>
       <c r="Y490" s="4"/>
     </row>
-    <row r="491" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -15428,7 +15428,7 @@
       <c r="X491" s="4"/>
       <c r="Y491" s="4"/>
     </row>
-    <row r="492" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -15455,7 +15455,7 @@
       <c r="X492" s="4"/>
       <c r="Y492" s="4"/>
     </row>
-    <row r="493" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -15482,7 +15482,7 @@
       <c r="X493" s="4"/>
       <c r="Y493" s="4"/>
     </row>
-    <row r="494" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -15509,7 +15509,7 @@
       <c r="X494" s="4"/>
       <c r="Y494" s="4"/>
     </row>
-    <row r="495" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -15536,7 +15536,7 @@
       <c r="X495" s="4"/>
       <c r="Y495" s="4"/>
     </row>
-    <row r="496" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -15563,7 +15563,7 @@
       <c r="X496" s="4"/>
       <c r="Y496" s="4"/>
     </row>
-    <row r="497" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -15590,7 +15590,7 @@
       <c r="X497" s="4"/>
       <c r="Y497" s="4"/>
     </row>
-    <row r="498" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -15617,7 +15617,7 @@
       <c r="X498" s="4"/>
       <c r="Y498" s="4"/>
     </row>
-    <row r="499" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -15644,7 +15644,7 @@
       <c r="X499" s="4"/>
       <c r="Y499" s="4"/>
     </row>
-    <row r="500" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -15671,7 +15671,7 @@
       <c r="X500" s="4"/>
       <c r="Y500" s="4"/>
     </row>
-    <row r="501" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -15698,7 +15698,7 @@
       <c r="X501" s="4"/>
       <c r="Y501" s="4"/>
     </row>
-    <row r="502" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15725,7 +15725,7 @@
       <c r="X502" s="4"/>
       <c r="Y502" s="4"/>
     </row>
-    <row r="503" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -15752,7 +15752,7 @@
       <c r="X503" s="4"/>
       <c r="Y503" s="4"/>
     </row>
-    <row r="504" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -15779,7 +15779,7 @@
       <c r="X504" s="4"/>
       <c r="Y504" s="4"/>
     </row>
-    <row r="505" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -15806,7 +15806,7 @@
       <c r="X505" s="4"/>
       <c r="Y505" s="4"/>
     </row>
-    <row r="506" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -15833,7 +15833,7 @@
       <c r="X506" s="4"/>
       <c r="Y506" s="4"/>
     </row>
-    <row r="507" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -15860,7 +15860,7 @@
       <c r="X507" s="4"/>
       <c r="Y507" s="4"/>
     </row>
-    <row r="508" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -15887,7 +15887,7 @@
       <c r="X508" s="4"/>
       <c r="Y508" s="4"/>
     </row>
-    <row r="509" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -15914,7 +15914,7 @@
       <c r="X509" s="4"/>
       <c r="Y509" s="4"/>
     </row>
-    <row r="510" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -15941,7 +15941,7 @@
       <c r="X510" s="4"/>
       <c r="Y510" s="4"/>
     </row>
-    <row r="511" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -15968,7 +15968,7 @@
       <c r="X511" s="4"/>
       <c r="Y511" s="4"/>
     </row>
-    <row r="512" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -15995,7 +15995,7 @@
       <c r="X512" s="4"/>
       <c r="Y512" s="4"/>
     </row>
-    <row r="513" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -16022,7 +16022,7 @@
       <c r="X513" s="4"/>
       <c r="Y513" s="4"/>
     </row>
-    <row r="514" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -16049,7 +16049,7 @@
       <c r="X514" s="4"/>
       <c r="Y514" s="4"/>
     </row>
-    <row r="515" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -16076,7 +16076,7 @@
       <c r="X515" s="4"/>
       <c r="Y515" s="4"/>
     </row>
-    <row r="516" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -16103,7 +16103,7 @@
       <c r="X516" s="4"/>
       <c r="Y516" s="4"/>
     </row>
-    <row r="517" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -16130,7 +16130,7 @@
       <c r="X517" s="4"/>
       <c r="Y517" s="4"/>
     </row>
-    <row r="518" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -16157,7 +16157,7 @@
       <c r="X518" s="4"/>
       <c r="Y518" s="4"/>
     </row>
-    <row r="519" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -16184,7 +16184,7 @@
       <c r="X519" s="4"/>
       <c r="Y519" s="4"/>
     </row>
-    <row r="520" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -16211,7 +16211,7 @@
       <c r="X520" s="4"/>
       <c r="Y520" s="4"/>
     </row>
-    <row r="521" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -16238,7 +16238,7 @@
       <c r="X521" s="4"/>
       <c r="Y521" s="4"/>
     </row>
-    <row r="522" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -16265,7 +16265,7 @@
       <c r="X522" s="4"/>
       <c r="Y522" s="4"/>
     </row>
-    <row r="523" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -16292,7 +16292,7 @@
       <c r="X523" s="4"/>
       <c r="Y523" s="4"/>
     </row>
-    <row r="524" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -16319,7 +16319,7 @@
       <c r="X524" s="4"/>
       <c r="Y524" s="4"/>
     </row>
-    <row r="525" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -16346,7 +16346,7 @@
       <c r="X525" s="4"/>
       <c r="Y525" s="4"/>
     </row>
-    <row r="526" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -16373,7 +16373,7 @@
       <c r="X526" s="4"/>
       <c r="Y526" s="4"/>
     </row>
-    <row r="527" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -16400,7 +16400,7 @@
       <c r="X527" s="4"/>
       <c r="Y527" s="4"/>
     </row>
-    <row r="528" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -16427,7 +16427,7 @@
       <c r="X528" s="4"/>
       <c r="Y528" s="4"/>
     </row>
-    <row r="529" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -16454,7 +16454,7 @@
       <c r="X529" s="4"/>
       <c r="Y529" s="4"/>
     </row>
-    <row r="530" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -16481,7 +16481,7 @@
       <c r="X530" s="4"/>
       <c r="Y530" s="4"/>
     </row>
-    <row r="531" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -16508,7 +16508,7 @@
       <c r="X531" s="4"/>
       <c r="Y531" s="4"/>
     </row>
-    <row r="532" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -16535,7 +16535,7 @@
       <c r="X532" s="4"/>
       <c r="Y532" s="4"/>
     </row>
-    <row r="533" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -16562,7 +16562,7 @@
       <c r="X533" s="4"/>
       <c r="Y533" s="4"/>
     </row>
-    <row r="534" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -16589,7 +16589,7 @@
       <c r="X534" s="4"/>
       <c r="Y534" s="4"/>
     </row>
-    <row r="535" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -16616,7 +16616,7 @@
       <c r="X535" s="4"/>
       <c r="Y535" s="4"/>
     </row>
-    <row r="536" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -16643,7 +16643,7 @@
       <c r="X536" s="4"/>
       <c r="Y536" s="4"/>
     </row>
-    <row r="537" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -16670,7 +16670,7 @@
       <c r="X537" s="4"/>
       <c r="Y537" s="4"/>
     </row>
-    <row r="538" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -16697,7 +16697,7 @@
       <c r="X538" s="4"/>
       <c r="Y538" s="4"/>
     </row>
-    <row r="539" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -16724,7 +16724,7 @@
       <c r="X539" s="4"/>
       <c r="Y539" s="4"/>
     </row>
-    <row r="540" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -16751,7 +16751,7 @@
       <c r="X540" s="4"/>
       <c r="Y540" s="4"/>
     </row>
-    <row r="541" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -16778,7 +16778,7 @@
       <c r="X541" s="4"/>
       <c r="Y541" s="4"/>
     </row>
-    <row r="542" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -16805,7 +16805,7 @@
       <c r="X542" s="4"/>
       <c r="Y542" s="4"/>
     </row>
-    <row r="543" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -16832,7 +16832,7 @@
       <c r="X543" s="4"/>
       <c r="Y543" s="4"/>
     </row>
-    <row r="544" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -16859,7 +16859,7 @@
       <c r="X544" s="4"/>
       <c r="Y544" s="4"/>
     </row>
-    <row r="545" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -16886,7 +16886,7 @@
       <c r="X545" s="4"/>
       <c r="Y545" s="4"/>
     </row>
-    <row r="546" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -16913,7 +16913,7 @@
       <c r="X546" s="4"/>
       <c r="Y546" s="4"/>
     </row>
-    <row r="547" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -16940,7 +16940,7 @@
       <c r="X547" s="4"/>
       <c r="Y547" s="4"/>
     </row>
-    <row r="548" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -16967,7 +16967,7 @@
       <c r="X548" s="4"/>
       <c r="Y548" s="4"/>
     </row>
-    <row r="549" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -16994,7 +16994,7 @@
       <c r="X549" s="4"/>
       <c r="Y549" s="4"/>
     </row>
-    <row r="550" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -17021,7 +17021,7 @@
       <c r="X550" s="4"/>
       <c r="Y550" s="4"/>
     </row>
-    <row r="551" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -17048,7 +17048,7 @@
       <c r="X551" s="4"/>
       <c r="Y551" s="4"/>
     </row>
-    <row r="552" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -17075,7 +17075,7 @@
       <c r="X552" s="4"/>
       <c r="Y552" s="4"/>
     </row>
-    <row r="553" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -17102,7 +17102,7 @@
       <c r="X553" s="4"/>
       <c r="Y553" s="4"/>
     </row>
-    <row r="554" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -17129,7 +17129,7 @@
       <c r="X554" s="4"/>
       <c r="Y554" s="4"/>
     </row>
-    <row r="555" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -17156,7 +17156,7 @@
       <c r="X555" s="4"/>
       <c r="Y555" s="4"/>
     </row>
-    <row r="556" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -17183,7 +17183,7 @@
       <c r="X556" s="4"/>
       <c r="Y556" s="4"/>
     </row>
-    <row r="557" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -17210,7 +17210,7 @@
       <c r="X557" s="4"/>
       <c r="Y557" s="4"/>
     </row>
-    <row r="558" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -17237,7 +17237,7 @@
       <c r="X558" s="4"/>
       <c r="Y558" s="4"/>
     </row>
-    <row r="559" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -17264,7 +17264,7 @@
       <c r="X559" s="4"/>
       <c r="Y559" s="4"/>
     </row>
-    <row r="560" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -17291,7 +17291,7 @@
       <c r="X560" s="4"/>
       <c r="Y560" s="4"/>
     </row>
-    <row r="561" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -17318,7 +17318,7 @@
       <c r="X561" s="4"/>
       <c r="Y561" s="4"/>
     </row>
-    <row r="562" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -17345,7 +17345,7 @@
       <c r="X562" s="4"/>
       <c r="Y562" s="4"/>
     </row>
-    <row r="563" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -17372,7 +17372,7 @@
       <c r="X563" s="4"/>
       <c r="Y563" s="4"/>
     </row>
-    <row r="564" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -17399,7 +17399,7 @@
       <c r="X564" s="4"/>
       <c r="Y564" s="4"/>
     </row>
-    <row r="565" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -17426,7 +17426,7 @@
       <c r="X565" s="4"/>
       <c r="Y565" s="4"/>
     </row>
-    <row r="566" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -17453,7 +17453,7 @@
       <c r="X566" s="4"/>
       <c r="Y566" s="4"/>
     </row>
-    <row r="567" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -17480,7 +17480,7 @@
       <c r="X567" s="4"/>
       <c r="Y567" s="4"/>
     </row>
-    <row r="568" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -17507,7 +17507,7 @@
       <c r="X568" s="4"/>
       <c r="Y568" s="4"/>
     </row>
-    <row r="569" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -17534,7 +17534,7 @@
       <c r="X569" s="4"/>
       <c r="Y569" s="4"/>
     </row>
-    <row r="570" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -17561,7 +17561,7 @@
       <c r="X570" s="4"/>
       <c r="Y570" s="4"/>
     </row>
-    <row r="571" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -17588,7 +17588,7 @@
       <c r="X571" s="4"/>
       <c r="Y571" s="4"/>
     </row>
-    <row r="572" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -17615,7 +17615,7 @@
       <c r="X572" s="4"/>
       <c r="Y572" s="4"/>
     </row>
-    <row r="573" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -17642,7 +17642,7 @@
       <c r="X573" s="4"/>
       <c r="Y573" s="4"/>
     </row>
-    <row r="574" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -17669,7 +17669,7 @@
       <c r="X574" s="4"/>
       <c r="Y574" s="4"/>
     </row>
-    <row r="575" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -17696,7 +17696,7 @@
       <c r="X575" s="4"/>
       <c r="Y575" s="4"/>
     </row>
-    <row r="576" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -17723,7 +17723,7 @@
       <c r="X576" s="4"/>
       <c r="Y576" s="4"/>
     </row>
-    <row r="577" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -17750,7 +17750,7 @@
       <c r="X577" s="4"/>
       <c r="Y577" s="4"/>
     </row>
-    <row r="578" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -17777,7 +17777,7 @@
       <c r="X578" s="4"/>
       <c r="Y578" s="4"/>
     </row>
-    <row r="579" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -17804,7 +17804,7 @@
       <c r="X579" s="4"/>
       <c r="Y579" s="4"/>
     </row>
-    <row r="580" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -17831,7 +17831,7 @@
       <c r="X580" s="4"/>
       <c r="Y580" s="4"/>
     </row>
-    <row r="581" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -17858,7 +17858,7 @@
       <c r="X581" s="4"/>
       <c r="Y581" s="4"/>
     </row>
-    <row r="582" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -17885,7 +17885,7 @@
       <c r="X582" s="4"/>
       <c r="Y582" s="4"/>
     </row>
-    <row r="583" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -17912,7 +17912,7 @@
       <c r="X583" s="4"/>
       <c r="Y583" s="4"/>
     </row>
-    <row r="584" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -17939,7 +17939,7 @@
       <c r="X584" s="4"/>
       <c r="Y584" s="4"/>
     </row>
-    <row r="585" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -17966,7 +17966,7 @@
       <c r="X585" s="4"/>
       <c r="Y585" s="4"/>
     </row>
-    <row r="586" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -17993,7 +17993,7 @@
       <c r="X586" s="4"/>
       <c r="Y586" s="4"/>
     </row>
-    <row r="587" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -18020,7 +18020,7 @@
       <c r="X587" s="4"/>
       <c r="Y587" s="4"/>
     </row>
-    <row r="588" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -18047,7 +18047,7 @@
       <c r="X588" s="4"/>
       <c r="Y588" s="4"/>
     </row>
-    <row r="589" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -18074,7 +18074,7 @@
       <c r="X589" s="4"/>
       <c r="Y589" s="4"/>
     </row>
-    <row r="590" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -18101,7 +18101,7 @@
       <c r="X590" s="4"/>
       <c r="Y590" s="4"/>
     </row>
-    <row r="591" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -18128,7 +18128,7 @@
       <c r="X591" s="4"/>
       <c r="Y591" s="4"/>
     </row>
-    <row r="592" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -18155,7 +18155,7 @@
       <c r="X592" s="4"/>
       <c r="Y592" s="4"/>
     </row>
-    <row r="593" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -18182,7 +18182,7 @@
       <c r="X593" s="4"/>
       <c r="Y593" s="4"/>
     </row>
-    <row r="594" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -18209,7 +18209,7 @@
       <c r="X594" s="4"/>
       <c r="Y594" s="4"/>
     </row>
-    <row r="595" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -18236,7 +18236,7 @@
       <c r="X595" s="4"/>
       <c r="Y595" s="4"/>
     </row>
-    <row r="596" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -18263,7 +18263,7 @@
       <c r="X596" s="4"/>
       <c r="Y596" s="4"/>
     </row>
-    <row r="597" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -18290,7 +18290,7 @@
       <c r="X597" s="4"/>
       <c r="Y597" s="4"/>
     </row>
-    <row r="598" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -18317,7 +18317,7 @@
       <c r="X598" s="4"/>
       <c r="Y598" s="4"/>
     </row>
-    <row r="599" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -18344,7 +18344,7 @@
       <c r="X599" s="4"/>
       <c r="Y599" s="4"/>
     </row>
-    <row r="600" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -18371,7 +18371,7 @@
       <c r="X600" s="4"/>
       <c r="Y600" s="4"/>
     </row>
-    <row r="601" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -18398,7 +18398,7 @@
       <c r="X601" s="4"/>
       <c r="Y601" s="4"/>
     </row>
-    <row r="602" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -18425,7 +18425,7 @@
       <c r="X602" s="4"/>
       <c r="Y602" s="4"/>
     </row>
-    <row r="603" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -18452,7 +18452,7 @@
       <c r="X603" s="4"/>
       <c r="Y603" s="4"/>
     </row>
-    <row r="604" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -18479,7 +18479,7 @@
       <c r="X604" s="4"/>
       <c r="Y604" s="4"/>
     </row>
-    <row r="605" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -18506,7 +18506,7 @@
       <c r="X605" s="4"/>
       <c r="Y605" s="4"/>
     </row>
-    <row r="606" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -18533,7 +18533,7 @@
       <c r="X606" s="4"/>
       <c r="Y606" s="4"/>
     </row>
-    <row r="607" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -18560,7 +18560,7 @@
       <c r="X607" s="4"/>
       <c r="Y607" s="4"/>
     </row>
-    <row r="608" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -18587,7 +18587,7 @@
       <c r="X608" s="4"/>
       <c r="Y608" s="4"/>
     </row>
-    <row r="609" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -18614,7 +18614,7 @@
       <c r="X609" s="4"/>
       <c r="Y609" s="4"/>
     </row>
-    <row r="610" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -18641,7 +18641,7 @@
       <c r="X610" s="4"/>
       <c r="Y610" s="4"/>
     </row>
-    <row r="611" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -18668,7 +18668,7 @@
       <c r="X611" s="4"/>
       <c r="Y611" s="4"/>
     </row>
-    <row r="612" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -18695,7 +18695,7 @@
       <c r="X612" s="4"/>
       <c r="Y612" s="4"/>
     </row>
-    <row r="613" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -18722,7 +18722,7 @@
       <c r="X613" s="4"/>
       <c r="Y613" s="4"/>
     </row>
-    <row r="614" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -18749,7 +18749,7 @@
       <c r="X614" s="4"/>
       <c r="Y614" s="4"/>
     </row>
-    <row r="615" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -18776,7 +18776,7 @@
       <c r="X615" s="4"/>
       <c r="Y615" s="4"/>
     </row>
-    <row r="616" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -18803,7 +18803,7 @@
       <c r="X616" s="4"/>
       <c r="Y616" s="4"/>
     </row>
-    <row r="617" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -18830,7 +18830,7 @@
       <c r="X617" s="4"/>
       <c r="Y617" s="4"/>
     </row>
-    <row r="618" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -18857,7 +18857,7 @@
       <c r="X618" s="4"/>
       <c r="Y618" s="4"/>
     </row>
-    <row r="619" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -18884,7 +18884,7 @@
       <c r="X619" s="4"/>
       <c r="Y619" s="4"/>
     </row>
-    <row r="620" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -18911,7 +18911,7 @@
       <c r="X620" s="4"/>
       <c r="Y620" s="4"/>
     </row>
-    <row r="621" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -18938,7 +18938,7 @@
       <c r="X621" s="4"/>
       <c r="Y621" s="4"/>
     </row>
-    <row r="622" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -18965,7 +18965,7 @@
       <c r="X622" s="4"/>
       <c r="Y622" s="4"/>
     </row>
-    <row r="623" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -18992,7 +18992,7 @@
       <c r="X623" s="4"/>
       <c r="Y623" s="4"/>
     </row>
-    <row r="624" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -19019,7 +19019,7 @@
       <c r="X624" s="4"/>
       <c r="Y624" s="4"/>
     </row>
-    <row r="625" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -19046,7 +19046,7 @@
       <c r="X625" s="4"/>
       <c r="Y625" s="4"/>
     </row>
-    <row r="626" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -19073,7 +19073,7 @@
       <c r="X626" s="4"/>
       <c r="Y626" s="4"/>
     </row>
-    <row r="627" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -19100,7 +19100,7 @@
       <c r="X627" s="4"/>
       <c r="Y627" s="4"/>
     </row>
-    <row r="628" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -19127,7 +19127,7 @@
       <c r="X628" s="4"/>
       <c r="Y628" s="4"/>
     </row>
-    <row r="629" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -19154,7 +19154,7 @@
       <c r="X629" s="4"/>
       <c r="Y629" s="4"/>
     </row>
-    <row r="630" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -19181,7 +19181,7 @@
       <c r="X630" s="4"/>
       <c r="Y630" s="4"/>
     </row>
-    <row r="631" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -19208,7 +19208,7 @@
       <c r="X631" s="4"/>
       <c r="Y631" s="4"/>
     </row>
-    <row r="632" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -19235,7 +19235,7 @@
       <c r="X632" s="4"/>
       <c r="Y632" s="4"/>
     </row>
-    <row r="633" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -19262,7 +19262,7 @@
       <c r="X633" s="4"/>
       <c r="Y633" s="4"/>
     </row>
-    <row r="634" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -19289,7 +19289,7 @@
       <c r="X634" s="4"/>
       <c r="Y634" s="4"/>
     </row>
-    <row r="635" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -19316,7 +19316,7 @@
       <c r="X635" s="4"/>
       <c r="Y635" s="4"/>
     </row>
-    <row r="636" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -19343,7 +19343,7 @@
       <c r="X636" s="4"/>
       <c r="Y636" s="4"/>
     </row>
-    <row r="637" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -19370,7 +19370,7 @@
       <c r="X637" s="4"/>
       <c r="Y637" s="4"/>
     </row>
-    <row r="638" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -19397,7 +19397,7 @@
       <c r="X638" s="4"/>
       <c r="Y638" s="4"/>
     </row>
-    <row r="639" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -19424,7 +19424,7 @@
       <c r="X639" s="4"/>
       <c r="Y639" s="4"/>
     </row>
-    <row r="640" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -19451,7 +19451,7 @@
       <c r="X640" s="4"/>
       <c r="Y640" s="4"/>
     </row>
-    <row r="641" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -19478,7 +19478,7 @@
       <c r="X641" s="4"/>
       <c r="Y641" s="4"/>
     </row>
-    <row r="642" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -19505,7 +19505,7 @@
       <c r="X642" s="4"/>
       <c r="Y642" s="4"/>
     </row>
-    <row r="643" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -19532,7 +19532,7 @@
       <c r="X643" s="4"/>
       <c r="Y643" s="4"/>
     </row>
-    <row r="644" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -19559,7 +19559,7 @@
       <c r="X644" s="4"/>
       <c r="Y644" s="4"/>
     </row>
-    <row r="645" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -19586,7 +19586,7 @@
       <c r="X645" s="4"/>
       <c r="Y645" s="4"/>
     </row>
-    <row r="646" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -19613,7 +19613,7 @@
       <c r="X646" s="4"/>
       <c r="Y646" s="4"/>
     </row>
-    <row r="647" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -19640,7 +19640,7 @@
       <c r="X647" s="4"/>
       <c r="Y647" s="4"/>
     </row>
-    <row r="648" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -19667,7 +19667,7 @@
       <c r="X648" s="4"/>
       <c r="Y648" s="4"/>
     </row>
-    <row r="649" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -19694,7 +19694,7 @@
       <c r="X649" s="4"/>
       <c r="Y649" s="4"/>
     </row>
-    <row r="650" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -19721,7 +19721,7 @@
       <c r="X650" s="4"/>
       <c r="Y650" s="4"/>
     </row>
-    <row r="651" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -19748,7 +19748,7 @@
       <c r="X651" s="4"/>
       <c r="Y651" s="4"/>
     </row>
-    <row r="652" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -19775,7 +19775,7 @@
       <c r="X652" s="4"/>
       <c r="Y652" s="4"/>
     </row>
-    <row r="653" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -19802,7 +19802,7 @@
       <c r="X653" s="4"/>
       <c r="Y653" s="4"/>
     </row>
-    <row r="654" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -19829,7 +19829,7 @@
       <c r="X654" s="4"/>
       <c r="Y654" s="4"/>
     </row>
-    <row r="655" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -19856,7 +19856,7 @@
       <c r="X655" s="4"/>
       <c r="Y655" s="4"/>
     </row>
-    <row r="656" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -19883,7 +19883,7 @@
       <c r="X656" s="4"/>
       <c r="Y656" s="4"/>
     </row>
-    <row r="657" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -19910,7 +19910,7 @@
       <c r="X657" s="4"/>
       <c r="Y657" s="4"/>
     </row>
-    <row r="658" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -19937,7 +19937,7 @@
       <c r="X658" s="4"/>
       <c r="Y658" s="4"/>
     </row>
-    <row r="659" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -19964,7 +19964,7 @@
       <c r="X659" s="4"/>
       <c r="Y659" s="4"/>
     </row>
-    <row r="660" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -19991,7 +19991,7 @@
       <c r="X660" s="4"/>
       <c r="Y660" s="4"/>
     </row>
-    <row r="661" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -20018,7 +20018,7 @@
       <c r="X661" s="4"/>
       <c r="Y661" s="4"/>
     </row>
-    <row r="662" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -20045,7 +20045,7 @@
       <c r="X662" s="4"/>
       <c r="Y662" s="4"/>
     </row>
-    <row r="663" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -20072,7 +20072,7 @@
       <c r="X663" s="4"/>
       <c r="Y663" s="4"/>
     </row>
-    <row r="664" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -20099,7 +20099,7 @@
       <c r="X664" s="4"/>
       <c r="Y664" s="4"/>
     </row>
-    <row r="665" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -20126,7 +20126,7 @@
       <c r="X665" s="4"/>
       <c r="Y665" s="4"/>
     </row>
-    <row r="666" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -20153,7 +20153,7 @@
       <c r="X666" s="4"/>
       <c r="Y666" s="4"/>
     </row>
-    <row r="667" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -20180,7 +20180,7 @@
       <c r="X667" s="4"/>
       <c r="Y667" s="4"/>
     </row>
-    <row r="668" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -20207,7 +20207,7 @@
       <c r="X668" s="4"/>
       <c r="Y668" s="4"/>
     </row>
-    <row r="669" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -20234,7 +20234,7 @@
       <c r="X669" s="4"/>
       <c r="Y669" s="4"/>
     </row>
-    <row r="670" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -20261,7 +20261,7 @@
       <c r="X670" s="4"/>
       <c r="Y670" s="4"/>
     </row>
-    <row r="671" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -20288,7 +20288,7 @@
       <c r="X671" s="4"/>
       <c r="Y671" s="4"/>
     </row>
-    <row r="672" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -20315,7 +20315,7 @@
       <c r="X672" s="4"/>
       <c r="Y672" s="4"/>
     </row>
-    <row r="673" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -20342,7 +20342,7 @@
       <c r="X673" s="4"/>
       <c r="Y673" s="4"/>
     </row>
-    <row r="674" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -20369,7 +20369,7 @@
       <c r="X674" s="4"/>
       <c r="Y674" s="4"/>
     </row>
-    <row r="675" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -20396,7 +20396,7 @@
       <c r="X675" s="4"/>
       <c r="Y675" s="4"/>
     </row>
-    <row r="676" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -20423,7 +20423,7 @@
       <c r="X676" s="4"/>
       <c r="Y676" s="4"/>
     </row>
-    <row r="677" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -20450,7 +20450,7 @@
       <c r="X677" s="4"/>
       <c r="Y677" s="4"/>
     </row>
-    <row r="678" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -20477,7 +20477,7 @@
       <c r="X678" s="4"/>
       <c r="Y678" s="4"/>
     </row>
-    <row r="679" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -20504,7 +20504,7 @@
       <c r="X679" s="4"/>
       <c r="Y679" s="4"/>
     </row>
-    <row r="680" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -20531,7 +20531,7 @@
       <c r="X680" s="4"/>
       <c r="Y680" s="4"/>
     </row>
-    <row r="681" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -20558,7 +20558,7 @@
       <c r="X681" s="4"/>
       <c r="Y681" s="4"/>
     </row>
-    <row r="682" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -20585,7 +20585,7 @@
       <c r="X682" s="4"/>
       <c r="Y682" s="4"/>
     </row>
-    <row r="683" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -20612,7 +20612,7 @@
       <c r="X683" s="4"/>
       <c r="Y683" s="4"/>
     </row>
-    <row r="684" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -20639,7 +20639,7 @@
       <c r="X684" s="4"/>
       <c r="Y684" s="4"/>
     </row>
-    <row r="685" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -20666,7 +20666,7 @@
       <c r="X685" s="4"/>
       <c r="Y685" s="4"/>
     </row>
-    <row r="686" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -20693,7 +20693,7 @@
       <c r="X686" s="4"/>
       <c r="Y686" s="4"/>
     </row>
-    <row r="687" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -20720,7 +20720,7 @@
       <c r="X687" s="4"/>
       <c r="Y687" s="4"/>
     </row>
-    <row r="688" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -20747,7 +20747,7 @@
       <c r="X688" s="4"/>
       <c r="Y688" s="4"/>
     </row>
-    <row r="689" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -20774,7 +20774,7 @@
       <c r="X689" s="4"/>
       <c r="Y689" s="4"/>
     </row>
-    <row r="690" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -20801,7 +20801,7 @@
       <c r="X690" s="4"/>
       <c r="Y690" s="4"/>
     </row>
-    <row r="691" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -20828,7 +20828,7 @@
       <c r="X691" s="4"/>
       <c r="Y691" s="4"/>
     </row>
-    <row r="692" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -20855,7 +20855,7 @@
       <c r="X692" s="4"/>
       <c r="Y692" s="4"/>
     </row>
-    <row r="693" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -20882,7 +20882,7 @@
       <c r="X693" s="4"/>
       <c r="Y693" s="4"/>
     </row>
-    <row r="694" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -20909,7 +20909,7 @@
       <c r="X694" s="4"/>
       <c r="Y694" s="4"/>
     </row>
-    <row r="695" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -20936,7 +20936,7 @@
       <c r="X695" s="4"/>
       <c r="Y695" s="4"/>
     </row>
-    <row r="696" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -20963,7 +20963,7 @@
       <c r="X696" s="4"/>
       <c r="Y696" s="4"/>
     </row>
-    <row r="697" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -20990,7 +20990,7 @@
       <c r="X697" s="4"/>
       <c r="Y697" s="4"/>
     </row>
-    <row r="698" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -21017,7 +21017,7 @@
       <c r="X698" s="4"/>
       <c r="Y698" s="4"/>
     </row>
-    <row r="699" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -21044,7 +21044,7 @@
       <c r="X699" s="4"/>
       <c r="Y699" s="4"/>
     </row>
-    <row r="700" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -21071,7 +21071,7 @@
       <c r="X700" s="4"/>
       <c r="Y700" s="4"/>
     </row>
-    <row r="701" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -21098,7 +21098,7 @@
       <c r="X701" s="4"/>
       <c r="Y701" s="4"/>
     </row>
-    <row r="702" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -21125,7 +21125,7 @@
       <c r="X702" s="4"/>
       <c r="Y702" s="4"/>
     </row>
-    <row r="703" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -21152,7 +21152,7 @@
       <c r="X703" s="4"/>
       <c r="Y703" s="4"/>
     </row>
-    <row r="704" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -21179,7 +21179,7 @@
       <c r="X704" s="4"/>
       <c r="Y704" s="4"/>
     </row>
-    <row r="705" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -21206,7 +21206,7 @@
       <c r="X705" s="4"/>
       <c r="Y705" s="4"/>
     </row>
-    <row r="706" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -21233,7 +21233,7 @@
       <c r="X706" s="4"/>
       <c r="Y706" s="4"/>
     </row>
-    <row r="707" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -21260,7 +21260,7 @@
       <c r="X707" s="4"/>
       <c r="Y707" s="4"/>
     </row>
-    <row r="708" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -21287,7 +21287,7 @@
       <c r="X708" s="4"/>
       <c r="Y708" s="4"/>
     </row>
-    <row r="709" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -21314,7 +21314,7 @@
       <c r="X709" s="4"/>
       <c r="Y709" s="4"/>
     </row>
-    <row r="710" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -21341,7 +21341,7 @@
       <c r="X710" s="4"/>
       <c r="Y710" s="4"/>
     </row>
-    <row r="711" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -21368,7 +21368,7 @@
       <c r="X711" s="4"/>
       <c r="Y711" s="4"/>
     </row>
-    <row r="712" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -21395,7 +21395,7 @@
       <c r="X712" s="4"/>
       <c r="Y712" s="4"/>
     </row>
-    <row r="713" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -21422,7 +21422,7 @@
       <c r="X713" s="4"/>
       <c r="Y713" s="4"/>
     </row>
-    <row r="714" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -21449,7 +21449,7 @@
       <c r="X714" s="4"/>
       <c r="Y714" s="4"/>
     </row>
-    <row r="715" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -21476,7 +21476,7 @@
       <c r="X715" s="4"/>
       <c r="Y715" s="4"/>
     </row>
-    <row r="716" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -21503,7 +21503,7 @@
       <c r="X716" s="4"/>
       <c r="Y716" s="4"/>
     </row>
-    <row r="717" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -21530,7 +21530,7 @@
       <c r="X717" s="4"/>
       <c r="Y717" s="4"/>
     </row>
-    <row r="718" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -21557,7 +21557,7 @@
       <c r="X718" s="4"/>
       <c r="Y718" s="4"/>
     </row>
-    <row r="719" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -21584,7 +21584,7 @@
       <c r="X719" s="4"/>
       <c r="Y719" s="4"/>
     </row>
-    <row r="720" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -21611,7 +21611,7 @@
       <c r="X720" s="4"/>
       <c r="Y720" s="4"/>
     </row>
-    <row r="721" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -21638,7 +21638,7 @@
       <c r="X721" s="4"/>
       <c r="Y721" s="4"/>
     </row>
-    <row r="722" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -21665,7 +21665,7 @@
       <c r="X722" s="4"/>
       <c r="Y722" s="4"/>
     </row>
-    <row r="723" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -21692,7 +21692,7 @@
       <c r="X723" s="4"/>
       <c r="Y723" s="4"/>
     </row>
-    <row r="724" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -21719,7 +21719,7 @@
       <c r="X724" s="4"/>
       <c r="Y724" s="4"/>
     </row>
-    <row r="725" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -21746,7 +21746,7 @@
       <c r="X725" s="4"/>
       <c r="Y725" s="4"/>
     </row>
-    <row r="726" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -21773,7 +21773,7 @@
       <c r="X726" s="4"/>
       <c r="Y726" s="4"/>
     </row>
-    <row r="727" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -21800,7 +21800,7 @@
       <c r="X727" s="4"/>
       <c r="Y727" s="4"/>
     </row>
-    <row r="728" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -21827,7 +21827,7 @@
       <c r="X728" s="4"/>
       <c r="Y728" s="4"/>
     </row>
-    <row r="729" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -21854,7 +21854,7 @@
       <c r="X729" s="4"/>
       <c r="Y729" s="4"/>
     </row>
-    <row r="730" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -21881,7 +21881,7 @@
       <c r="X730" s="4"/>
       <c r="Y730" s="4"/>
     </row>
-    <row r="731" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -21908,7 +21908,7 @@
       <c r="X731" s="4"/>
       <c r="Y731" s="4"/>
     </row>
-    <row r="732" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -21935,7 +21935,7 @@
       <c r="X732" s="4"/>
       <c r="Y732" s="4"/>
     </row>
-    <row r="733" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -21962,7 +21962,7 @@
       <c r="X733" s="4"/>
       <c r="Y733" s="4"/>
     </row>
-    <row r="734" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -21989,7 +21989,7 @@
       <c r="X734" s="4"/>
       <c r="Y734" s="4"/>
     </row>
-    <row r="735" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -22016,7 +22016,7 @@
       <c r="X735" s="4"/>
       <c r="Y735" s="4"/>
     </row>
-    <row r="736" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -22043,7 +22043,7 @@
       <c r="X736" s="4"/>
       <c r="Y736" s="4"/>
     </row>
-    <row r="737" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -22070,7 +22070,7 @@
       <c r="X737" s="4"/>
       <c r="Y737" s="4"/>
     </row>
-    <row r="738" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -22097,7 +22097,7 @@
       <c r="X738" s="4"/>
       <c r="Y738" s="4"/>
     </row>
-    <row r="739" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -22124,7 +22124,7 @@
       <c r="X739" s="4"/>
       <c r="Y739" s="4"/>
     </row>
-    <row r="740" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -22151,7 +22151,7 @@
       <c r="X740" s="4"/>
       <c r="Y740" s="4"/>
     </row>
-    <row r="741" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -22178,7 +22178,7 @@
       <c r="X741" s="4"/>
       <c r="Y741" s="4"/>
     </row>
-    <row r="742" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -22205,7 +22205,7 @@
       <c r="X742" s="4"/>
       <c r="Y742" s="4"/>
     </row>
-    <row r="743" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -22232,7 +22232,7 @@
       <c r="X743" s="4"/>
       <c r="Y743" s="4"/>
     </row>
-    <row r="744" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -22259,7 +22259,7 @@
       <c r="X744" s="4"/>
       <c r="Y744" s="4"/>
     </row>
-    <row r="745" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -22286,7 +22286,7 @@
       <c r="X745" s="4"/>
       <c r="Y745" s="4"/>
     </row>
-    <row r="746" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -22313,7 +22313,7 @@
       <c r="X746" s="4"/>
       <c r="Y746" s="4"/>
     </row>
-    <row r="747" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -22340,7 +22340,7 @@
       <c r="X747" s="4"/>
       <c r="Y747" s="4"/>
     </row>
-    <row r="748" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -22367,7 +22367,7 @@
       <c r="X748" s="4"/>
       <c r="Y748" s="4"/>
     </row>
-    <row r="749" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -22394,7 +22394,7 @@
       <c r="X749" s="4"/>
       <c r="Y749" s="4"/>
     </row>
-    <row r="750" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -22421,7 +22421,7 @@
       <c r="X750" s="4"/>
       <c r="Y750" s="4"/>
     </row>
-    <row r="751" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -22448,7 +22448,7 @@
       <c r="X751" s="4"/>
       <c r="Y751" s="4"/>
     </row>
-    <row r="752" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -22475,7 +22475,7 @@
       <c r="X752" s="4"/>
       <c r="Y752" s="4"/>
     </row>
-    <row r="753" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -22502,7 +22502,7 @@
       <c r="X753" s="4"/>
       <c r="Y753" s="4"/>
     </row>
-    <row r="754" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -22529,7 +22529,7 @@
       <c r="X754" s="4"/>
       <c r="Y754" s="4"/>
     </row>
-    <row r="755" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -22556,7 +22556,7 @@
       <c r="X755" s="4"/>
       <c r="Y755" s="4"/>
     </row>
-    <row r="756" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -22583,7 +22583,7 @@
       <c r="X756" s="4"/>
       <c r="Y756" s="4"/>
     </row>
-    <row r="757" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -22610,7 +22610,7 @@
       <c r="X757" s="4"/>
       <c r="Y757" s="4"/>
     </row>
-    <row r="758" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -22637,7 +22637,7 @@
       <c r="X758" s="4"/>
       <c r="Y758" s="4"/>
     </row>
-    <row r="759" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -22664,7 +22664,7 @@
       <c r="X759" s="4"/>
       <c r="Y759" s="4"/>
     </row>
-    <row r="760" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -22691,7 +22691,7 @@
       <c r="X760" s="4"/>
       <c r="Y760" s="4"/>
     </row>
-    <row r="761" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -22718,7 +22718,7 @@
       <c r="X761" s="4"/>
       <c r="Y761" s="4"/>
     </row>
-    <row r="762" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -22745,7 +22745,7 @@
       <c r="X762" s="4"/>
       <c r="Y762" s="4"/>
     </row>
-    <row r="763" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -22772,7 +22772,7 @@
       <c r="X763" s="4"/>
       <c r="Y763" s="4"/>
     </row>
-    <row r="764" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -22799,7 +22799,7 @@
       <c r="X764" s="4"/>
       <c r="Y764" s="4"/>
     </row>
-    <row r="765" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -22826,7 +22826,7 @@
       <c r="X765" s="4"/>
       <c r="Y765" s="4"/>
     </row>
-    <row r="766" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -22853,7 +22853,7 @@
       <c r="X766" s="4"/>
       <c r="Y766" s="4"/>
     </row>
-    <row r="767" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X767" s="4"/>
       <c r="Y767" s="4"/>
     </row>
-    <row r="768" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -22907,7 +22907,7 @@
       <c r="X768" s="4"/>
       <c r="Y768" s="4"/>
     </row>
-    <row r="769" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -22934,7 +22934,7 @@
       <c r="X769" s="4"/>
       <c r="Y769" s="4"/>
     </row>
-    <row r="770" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -22961,7 +22961,7 @@
       <c r="X770" s="4"/>
       <c r="Y770" s="4"/>
     </row>
-    <row r="771" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -22988,7 +22988,7 @@
       <c r="X771" s="4"/>
       <c r="Y771" s="4"/>
     </row>
-    <row r="772" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -23015,7 +23015,7 @@
       <c r="X772" s="4"/>
       <c r="Y772" s="4"/>
     </row>
-    <row r="773" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -23042,7 +23042,7 @@
       <c r="X773" s="4"/>
       <c r="Y773" s="4"/>
     </row>
-    <row r="774" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -23069,7 +23069,7 @@
       <c r="X774" s="4"/>
       <c r="Y774" s="4"/>
     </row>
-    <row r="775" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -23096,7 +23096,7 @@
       <c r="X775" s="4"/>
       <c r="Y775" s="4"/>
     </row>
-    <row r="776" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -23123,7 +23123,7 @@
       <c r="X776" s="4"/>
       <c r="Y776" s="4"/>
     </row>
-    <row r="777" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -23150,7 +23150,7 @@
       <c r="X777" s="4"/>
       <c r="Y777" s="4"/>
     </row>
-    <row r="778" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -23177,7 +23177,7 @@
       <c r="X778" s="4"/>
       <c r="Y778" s="4"/>
     </row>
-    <row r="779" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -23204,7 +23204,7 @@
       <c r="X779" s="4"/>
       <c r="Y779" s="4"/>
     </row>
-    <row r="780" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -23231,7 +23231,7 @@
       <c r="X780" s="4"/>
       <c r="Y780" s="4"/>
     </row>
-    <row r="781" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -23258,7 +23258,7 @@
       <c r="X781" s="4"/>
       <c r="Y781" s="4"/>
     </row>
-    <row r="782" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -23285,7 +23285,7 @@
       <c r="X782" s="4"/>
       <c r="Y782" s="4"/>
     </row>
-    <row r="783" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -23312,7 +23312,7 @@
       <c r="X783" s="4"/>
       <c r="Y783" s="4"/>
     </row>
-    <row r="784" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -23339,7 +23339,7 @@
       <c r="X784" s="4"/>
       <c r="Y784" s="4"/>
     </row>
-    <row r="785" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -23366,7 +23366,7 @@
       <c r="X785" s="4"/>
       <c r="Y785" s="4"/>
     </row>
-    <row r="786" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -23393,7 +23393,7 @@
       <c r="X786" s="4"/>
       <c r="Y786" s="4"/>
     </row>
-    <row r="787" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -23420,7 +23420,7 @@
       <c r="X787" s="4"/>
       <c r="Y787" s="4"/>
     </row>
-    <row r="788" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -23447,7 +23447,7 @@
       <c r="X788" s="4"/>
       <c r="Y788" s="4"/>
     </row>
-    <row r="789" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -23474,7 +23474,7 @@
       <c r="X789" s="4"/>
       <c r="Y789" s="4"/>
     </row>
-    <row r="790" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -23501,7 +23501,7 @@
       <c r="X790" s="4"/>
       <c r="Y790" s="4"/>
     </row>
-    <row r="791" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -23528,7 +23528,7 @@
       <c r="X791" s="4"/>
       <c r="Y791" s="4"/>
     </row>
-    <row r="792" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -23555,7 +23555,7 @@
       <c r="X792" s="4"/>
       <c r="Y792" s="4"/>
     </row>
-    <row r="793" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -23582,7 +23582,7 @@
       <c r="X793" s="4"/>
       <c r="Y793" s="4"/>
     </row>
-    <row r="794" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -23609,7 +23609,7 @@
       <c r="X794" s="4"/>
       <c r="Y794" s="4"/>
     </row>
-    <row r="795" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -23636,7 +23636,7 @@
       <c r="X795" s="4"/>
       <c r="Y795" s="4"/>
     </row>
-    <row r="796" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -23663,7 +23663,7 @@
       <c r="X796" s="4"/>
       <c r="Y796" s="4"/>
     </row>
-    <row r="797" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -23690,7 +23690,7 @@
       <c r="X797" s="4"/>
       <c r="Y797" s="4"/>
     </row>
-    <row r="798" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -23717,7 +23717,7 @@
       <c r="X798" s="4"/>
       <c r="Y798" s="4"/>
     </row>
-    <row r="799" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -23744,7 +23744,7 @@
       <c r="X799" s="4"/>
       <c r="Y799" s="4"/>
     </row>
-    <row r="800" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -23771,7 +23771,7 @@
       <c r="X800" s="4"/>
       <c r="Y800" s="4"/>
     </row>
-    <row r="801" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -23798,7 +23798,7 @@
       <c r="X801" s="4"/>
       <c r="Y801" s="4"/>
     </row>
-    <row r="802" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -23825,7 +23825,7 @@
       <c r="X802" s="4"/>
       <c r="Y802" s="4"/>
     </row>
-    <row r="803" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -23852,7 +23852,7 @@
       <c r="X803" s="4"/>
       <c r="Y803" s="4"/>
     </row>
-    <row r="804" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -23879,7 +23879,7 @@
       <c r="X804" s="4"/>
       <c r="Y804" s="4"/>
     </row>
-    <row r="805" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -23906,7 +23906,7 @@
       <c r="X805" s="4"/>
       <c r="Y805" s="4"/>
     </row>
-    <row r="806" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -23933,7 +23933,7 @@
       <c r="X806" s="4"/>
       <c r="Y806" s="4"/>
     </row>
-    <row r="807" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -23960,7 +23960,7 @@
       <c r="X807" s="4"/>
       <c r="Y807" s="4"/>
     </row>
-    <row r="808" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -23987,7 +23987,7 @@
       <c r="X808" s="4"/>
       <c r="Y808" s="4"/>
     </row>
-    <row r="809" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X809" s="4"/>
       <c r="Y809" s="4"/>
     </row>
-    <row r="810" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -24041,7 +24041,7 @@
       <c r="X810" s="4"/>
       <c r="Y810" s="4"/>
     </row>
-    <row r="811" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -24068,7 +24068,7 @@
       <c r="X811" s="4"/>
       <c r="Y811" s="4"/>
     </row>
-    <row r="812" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -24095,7 +24095,7 @@
       <c r="X812" s="4"/>
       <c r="Y812" s="4"/>
     </row>
-    <row r="813" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -24122,7 +24122,7 @@
       <c r="X813" s="4"/>
       <c r="Y813" s="4"/>
     </row>
-    <row r="814" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -24149,7 +24149,7 @@
       <c r="X814" s="4"/>
       <c r="Y814" s="4"/>
     </row>
-    <row r="815" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -24176,7 +24176,7 @@
       <c r="X815" s="4"/>
       <c r="Y815" s="4"/>
     </row>
-    <row r="816" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -24203,7 +24203,7 @@
       <c r="X816" s="4"/>
       <c r="Y816" s="4"/>
     </row>
-    <row r="817" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -24230,7 +24230,7 @@
       <c r="X817" s="4"/>
       <c r="Y817" s="4"/>
     </row>
-    <row r="818" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -24257,7 +24257,7 @@
       <c r="X818" s="4"/>
       <c r="Y818" s="4"/>
     </row>
-    <row r="819" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -24284,7 +24284,7 @@
       <c r="X819" s="4"/>
       <c r="Y819" s="4"/>
     </row>
-    <row r="820" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -24311,7 +24311,7 @@
       <c r="X820" s="4"/>
       <c r="Y820" s="4"/>
     </row>
-    <row r="821" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -24338,7 +24338,7 @@
       <c r="X821" s="4"/>
       <c r="Y821" s="4"/>
     </row>
-    <row r="822" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -24365,7 +24365,7 @@
       <c r="X822" s="4"/>
       <c r="Y822" s="4"/>
     </row>
-    <row r="823" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -24392,7 +24392,7 @@
       <c r="X823" s="4"/>
       <c r="Y823" s="4"/>
     </row>
-    <row r="824" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -24419,7 +24419,7 @@
       <c r="X824" s="4"/>
       <c r="Y824" s="4"/>
     </row>
-    <row r="825" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -24446,7 +24446,7 @@
       <c r="X825" s="4"/>
       <c r="Y825" s="4"/>
     </row>
-    <row r="826" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -24473,7 +24473,7 @@
       <c r="X826" s="4"/>
       <c r="Y826" s="4"/>
     </row>
-    <row r="827" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -24500,7 +24500,7 @@
       <c r="X827" s="4"/>
       <c r="Y827" s="4"/>
     </row>
-    <row r="828" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -24527,7 +24527,7 @@
       <c r="X828" s="4"/>
       <c r="Y828" s="4"/>
     </row>
-    <row r="829" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -24554,7 +24554,7 @@
       <c r="X829" s="4"/>
       <c r="Y829" s="4"/>
     </row>
-    <row r="830" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -24581,7 +24581,7 @@
       <c r="X830" s="4"/>
       <c r="Y830" s="4"/>
     </row>
-    <row r="831" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -24608,7 +24608,7 @@
       <c r="X831" s="4"/>
       <c r="Y831" s="4"/>
     </row>
-    <row r="832" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -24635,7 +24635,7 @@
       <c r="X832" s="4"/>
       <c r="Y832" s="4"/>
     </row>
-    <row r="833" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -24662,7 +24662,7 @@
       <c r="X833" s="4"/>
       <c r="Y833" s="4"/>
     </row>
-    <row r="834" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -24689,7 +24689,7 @@
       <c r="X834" s="4"/>
       <c r="Y834" s="4"/>
     </row>
-    <row r="835" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -24716,7 +24716,7 @@
       <c r="X835" s="4"/>
       <c r="Y835" s="4"/>
     </row>
-    <row r="836" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -24743,7 +24743,7 @@
       <c r="X836" s="4"/>
       <c r="Y836" s="4"/>
     </row>
-    <row r="837" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -24770,7 +24770,7 @@
       <c r="X837" s="4"/>
       <c r="Y837" s="4"/>
     </row>
-    <row r="838" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -24797,7 +24797,7 @@
       <c r="X838" s="4"/>
       <c r="Y838" s="4"/>
     </row>
-    <row r="839" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -24824,7 +24824,7 @@
       <c r="X839" s="4"/>
       <c r="Y839" s="4"/>
     </row>
-    <row r="840" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -24851,7 +24851,7 @@
       <c r="X840" s="4"/>
       <c r="Y840" s="4"/>
     </row>
-    <row r="841" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -24878,7 +24878,7 @@
       <c r="X841" s="4"/>
       <c r="Y841" s="4"/>
     </row>
-    <row r="842" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -24905,7 +24905,7 @@
       <c r="X842" s="4"/>
       <c r="Y842" s="4"/>
     </row>
-    <row r="843" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -24932,7 +24932,7 @@
       <c r="X843" s="4"/>
       <c r="Y843" s="4"/>
     </row>
-    <row r="844" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -24959,7 +24959,7 @@
       <c r="X844" s="4"/>
       <c r="Y844" s="4"/>
     </row>
-    <row r="845" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -24986,7 +24986,7 @@
       <c r="X845" s="4"/>
       <c r="Y845" s="4"/>
     </row>
-    <row r="846" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -25013,7 +25013,7 @@
       <c r="X846" s="4"/>
       <c r="Y846" s="4"/>
     </row>
-    <row r="847" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -25040,7 +25040,7 @@
       <c r="X847" s="4"/>
       <c r="Y847" s="4"/>
     </row>
-    <row r="848" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -25067,7 +25067,7 @@
       <c r="X848" s="4"/>
       <c r="Y848" s="4"/>
     </row>
-    <row r="849" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -25094,7 +25094,7 @@
       <c r="X849" s="4"/>
       <c r="Y849" s="4"/>
     </row>
-    <row r="850" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -25121,7 +25121,7 @@
       <c r="X850" s="4"/>
       <c r="Y850" s="4"/>
     </row>
-    <row r="851" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X851" s="4"/>
       <c r="Y851" s="4"/>
     </row>
-    <row r="852" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -25175,7 +25175,7 @@
       <c r="X852" s="4"/>
       <c r="Y852" s="4"/>
     </row>
-    <row r="853" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -25202,7 +25202,7 @@
       <c r="X853" s="4"/>
       <c r="Y853" s="4"/>
     </row>
-    <row r="854" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -25229,7 +25229,7 @@
       <c r="X854" s="4"/>
       <c r="Y854" s="4"/>
     </row>
-    <row r="855" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -25256,7 +25256,7 @@
       <c r="X855" s="4"/>
       <c r="Y855" s="4"/>
     </row>
-    <row r="856" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -25283,7 +25283,7 @@
       <c r="X856" s="4"/>
       <c r="Y856" s="4"/>
     </row>
-    <row r="857" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -25310,7 +25310,7 @@
       <c r="X857" s="4"/>
       <c r="Y857" s="4"/>
     </row>
-    <row r="858" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -25337,7 +25337,7 @@
       <c r="X858" s="4"/>
       <c r="Y858" s="4"/>
     </row>
-    <row r="859" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -25364,7 +25364,7 @@
       <c r="X859" s="4"/>
       <c r="Y859" s="4"/>
     </row>
-    <row r="860" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -25391,7 +25391,7 @@
       <c r="X860" s="4"/>
       <c r="Y860" s="4"/>
     </row>
-    <row r="861" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -25418,7 +25418,7 @@
       <c r="X861" s="4"/>
       <c r="Y861" s="4"/>
     </row>
-    <row r="862" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -25445,7 +25445,7 @@
       <c r="X862" s="4"/>
       <c r="Y862" s="4"/>
     </row>
-    <row r="863" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -25472,7 +25472,7 @@
       <c r="X863" s="4"/>
       <c r="Y863" s="4"/>
     </row>
-    <row r="864" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -25499,7 +25499,7 @@
       <c r="X864" s="4"/>
       <c r="Y864" s="4"/>
     </row>
-    <row r="865" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -25526,7 +25526,7 @@
       <c r="X865" s="4"/>
       <c r="Y865" s="4"/>
     </row>
-    <row r="866" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -25553,7 +25553,7 @@
       <c r="X866" s="4"/>
       <c r="Y866" s="4"/>
     </row>
-    <row r="867" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -25580,7 +25580,7 @@
       <c r="X867" s="4"/>
       <c r="Y867" s="4"/>
     </row>
-    <row r="868" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -25607,7 +25607,7 @@
       <c r="X868" s="4"/>
       <c r="Y868" s="4"/>
     </row>
-    <row r="869" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -25634,7 +25634,7 @@
       <c r="X869" s="4"/>
       <c r="Y869" s="4"/>
     </row>
-    <row r="870" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -25661,7 +25661,7 @@
       <c r="X870" s="4"/>
       <c r="Y870" s="4"/>
     </row>
-    <row r="871" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -25688,7 +25688,7 @@
       <c r="X871" s="4"/>
       <c r="Y871" s="4"/>
     </row>
-    <row r="872" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -25715,7 +25715,7 @@
       <c r="X872" s="4"/>
       <c r="Y872" s="4"/>
     </row>
-    <row r="873" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -25742,7 +25742,7 @@
       <c r="X873" s="4"/>
       <c r="Y873" s="4"/>
     </row>
-    <row r="874" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -25769,7 +25769,7 @@
       <c r="X874" s="4"/>
       <c r="Y874" s="4"/>
     </row>
-    <row r="875" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -25796,7 +25796,7 @@
       <c r="X875" s="4"/>
       <c r="Y875" s="4"/>
     </row>
-    <row r="876" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -25823,7 +25823,7 @@
       <c r="X876" s="4"/>
       <c r="Y876" s="4"/>
     </row>
-    <row r="877" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -25850,7 +25850,7 @@
       <c r="X877" s="4"/>
       <c r="Y877" s="4"/>
     </row>
-    <row r="878" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -25877,7 +25877,7 @@
       <c r="X878" s="4"/>
       <c r="Y878" s="4"/>
     </row>
-    <row r="879" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -25904,7 +25904,7 @@
       <c r="X879" s="4"/>
       <c r="Y879" s="4"/>
     </row>
-    <row r="880" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -25931,7 +25931,7 @@
       <c r="X880" s="4"/>
       <c r="Y880" s="4"/>
     </row>
-    <row r="881" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -25958,7 +25958,7 @@
       <c r="X881" s="4"/>
       <c r="Y881" s="4"/>
     </row>
-    <row r="882" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -25985,7 +25985,7 @@
       <c r="X882" s="4"/>
       <c r="Y882" s="4"/>
     </row>
-    <row r="883" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -26012,7 +26012,7 @@
       <c r="X883" s="4"/>
       <c r="Y883" s="4"/>
     </row>
-    <row r="884" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -26039,7 +26039,7 @@
       <c r="X884" s="4"/>
       <c r="Y884" s="4"/>
     </row>
-    <row r="885" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -26066,7 +26066,7 @@
       <c r="X885" s="4"/>
       <c r="Y885" s="4"/>
     </row>
-    <row r="886" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -26093,7 +26093,7 @@
       <c r="X886" s="4"/>
       <c r="Y886" s="4"/>
     </row>
-    <row r="887" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -26120,7 +26120,7 @@
       <c r="X887" s="4"/>
       <c r="Y887" s="4"/>
     </row>
-    <row r="888" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -26147,7 +26147,7 @@
       <c r="X888" s="4"/>
       <c r="Y888" s="4"/>
     </row>
-    <row r="889" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -26174,7 +26174,7 @@
       <c r="X889" s="4"/>
       <c r="Y889" s="4"/>
     </row>
-    <row r="890" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -26201,7 +26201,7 @@
       <c r="X890" s="4"/>
       <c r="Y890" s="4"/>
     </row>
-    <row r="891" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -26228,7 +26228,7 @@
       <c r="X891" s="4"/>
       <c r="Y891" s="4"/>
     </row>
-    <row r="892" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -26255,7 +26255,7 @@
       <c r="X892" s="4"/>
       <c r="Y892" s="4"/>
     </row>
-    <row r="893" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -26282,7 +26282,7 @@
       <c r="X893" s="4"/>
       <c r="Y893" s="4"/>
     </row>
-    <row r="894" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -26309,7 +26309,7 @@
       <c r="X894" s="4"/>
       <c r="Y894" s="4"/>
     </row>
-    <row r="895" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -26336,7 +26336,7 @@
       <c r="X895" s="4"/>
       <c r="Y895" s="4"/>
     </row>
-    <row r="896" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -26363,7 +26363,7 @@
       <c r="X896" s="4"/>
       <c r="Y896" s="4"/>
     </row>
-    <row r="897" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -26390,7 +26390,7 @@
       <c r="X897" s="4"/>
       <c r="Y897" s="4"/>
     </row>
-    <row r="898" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -26417,7 +26417,7 @@
       <c r="X898" s="4"/>
       <c r="Y898" s="4"/>
     </row>
-    <row r="899" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -26444,7 +26444,7 @@
       <c r="X899" s="4"/>
       <c r="Y899" s="4"/>
     </row>
-    <row r="900" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -26471,7 +26471,7 @@
       <c r="X900" s="4"/>
       <c r="Y900" s="4"/>
     </row>
-    <row r="901" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -26498,7 +26498,7 @@
       <c r="X901" s="4"/>
       <c r="Y901" s="4"/>
     </row>
-    <row r="902" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -26525,7 +26525,7 @@
       <c r="X902" s="4"/>
       <c r="Y902" s="4"/>
     </row>
-    <row r="903" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -26552,7 +26552,7 @@
       <c r="X903" s="4"/>
       <c r="Y903" s="4"/>
     </row>
-    <row r="904" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -26579,7 +26579,7 @@
       <c r="X904" s="4"/>
       <c r="Y904" s="4"/>
     </row>
-    <row r="905" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -26606,7 +26606,7 @@
       <c r="X905" s="4"/>
       <c r="Y905" s="4"/>
     </row>
-    <row r="906" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -26633,7 +26633,7 @@
       <c r="X906" s="4"/>
       <c r="Y906" s="4"/>
     </row>
-    <row r="907" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -26660,7 +26660,7 @@
       <c r="X907" s="4"/>
       <c r="Y907" s="4"/>
     </row>
-    <row r="908" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -26687,7 +26687,7 @@
       <c r="X908" s="4"/>
       <c r="Y908" s="4"/>
     </row>
-    <row r="909" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -26714,7 +26714,7 @@
       <c r="X909" s="4"/>
       <c r="Y909" s="4"/>
     </row>
-    <row r="910" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -26741,7 +26741,7 @@
       <c r="X910" s="4"/>
       <c r="Y910" s="4"/>
     </row>
-    <row r="911" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -26768,7 +26768,7 @@
       <c r="X911" s="4"/>
       <c r="Y911" s="4"/>
     </row>
-    <row r="912" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -26795,7 +26795,7 @@
       <c r="X912" s="4"/>
       <c r="Y912" s="4"/>
     </row>
-    <row r="913" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -26822,7 +26822,7 @@
       <c r="X913" s="4"/>
       <c r="Y913" s="4"/>
     </row>
-    <row r="914" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -26849,7 +26849,7 @@
       <c r="X914" s="4"/>
       <c r="Y914" s="4"/>
     </row>
-    <row r="915" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -26876,7 +26876,7 @@
       <c r="X915" s="4"/>
       <c r="Y915" s="4"/>
     </row>
-    <row r="916" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -26903,7 +26903,7 @@
       <c r="X916" s="4"/>
       <c r="Y916" s="4"/>
     </row>
-    <row r="917" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -26930,7 +26930,7 @@
       <c r="X917" s="4"/>
       <c r="Y917" s="4"/>
     </row>
-    <row r="918" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -26957,7 +26957,7 @@
       <c r="X918" s="4"/>
       <c r="Y918" s="4"/>
     </row>
-    <row r="919" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -26984,7 +26984,7 @@
       <c r="X919" s="4"/>
       <c r="Y919" s="4"/>
     </row>
-    <row r="920" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -27011,7 +27011,7 @@
       <c r="X920" s="4"/>
       <c r="Y920" s="4"/>
     </row>
-    <row r="921" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -27038,7 +27038,7 @@
       <c r="X921" s="4"/>
       <c r="Y921" s="4"/>
     </row>
-    <row r="922" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -27065,7 +27065,7 @@
       <c r="X922" s="4"/>
       <c r="Y922" s="4"/>
     </row>
-    <row r="923" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -27092,7 +27092,7 @@
       <c r="X923" s="4"/>
       <c r="Y923" s="4"/>
     </row>
-    <row r="924" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -27119,7 +27119,7 @@
       <c r="X924" s="4"/>
       <c r="Y924" s="4"/>
     </row>
-    <row r="925" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -27146,7 +27146,7 @@
       <c r="X925" s="4"/>
       <c r="Y925" s="4"/>
     </row>
-    <row r="926" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -27173,7 +27173,7 @@
       <c r="X926" s="4"/>
       <c r="Y926" s="4"/>
     </row>
-    <row r="927" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -27200,7 +27200,7 @@
       <c r="X927" s="4"/>
       <c r="Y927" s="4"/>
     </row>
-    <row r="928" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -27227,7 +27227,7 @@
       <c r="X928" s="4"/>
       <c r="Y928" s="4"/>
     </row>
-    <row r="929" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -27254,7 +27254,7 @@
       <c r="X929" s="4"/>
       <c r="Y929" s="4"/>
     </row>
-    <row r="930" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -27281,7 +27281,7 @@
       <c r="X930" s="4"/>
       <c r="Y930" s="4"/>
     </row>
-    <row r="931" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -27308,7 +27308,7 @@
       <c r="X931" s="4"/>
       <c r="Y931" s="4"/>
     </row>
-    <row r="932" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -27335,7 +27335,7 @@
       <c r="X932" s="4"/>
       <c r="Y932" s="4"/>
     </row>
-    <row r="933" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -27362,7 +27362,7 @@
       <c r="X933" s="4"/>
       <c r="Y933" s="4"/>
     </row>
-    <row r="934" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -27389,7 +27389,7 @@
       <c r="X934" s="4"/>
       <c r="Y934" s="4"/>
     </row>
-    <row r="935" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -27416,7 +27416,7 @@
       <c r="X935" s="4"/>
       <c r="Y935" s="4"/>
     </row>
-    <row r="936" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -27443,7 +27443,7 @@
       <c r="X936" s="4"/>
       <c r="Y936" s="4"/>
     </row>
-    <row r="937" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -27470,7 +27470,7 @@
       <c r="X937" s="4"/>
       <c r="Y937" s="4"/>
     </row>
-    <row r="938" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -27497,7 +27497,7 @@
       <c r="X938" s="4"/>
       <c r="Y938" s="4"/>
     </row>
-    <row r="939" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -27524,7 +27524,7 @@
       <c r="X939" s="4"/>
       <c r="Y939" s="4"/>
     </row>
-    <row r="940" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -27551,7 +27551,7 @@
       <c r="X940" s="4"/>
       <c r="Y940" s="4"/>
     </row>
-    <row r="941" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -27578,7 +27578,7 @@
       <c r="X941" s="4"/>
       <c r="Y941" s="4"/>
     </row>
-    <row r="942" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -27605,7 +27605,7 @@
       <c r="X942" s="4"/>
       <c r="Y942" s="4"/>
     </row>
-    <row r="943" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -27632,7 +27632,7 @@
       <c r="X943" s="4"/>
       <c r="Y943" s="4"/>
     </row>
-    <row r="944" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -27659,7 +27659,7 @@
       <c r="X944" s="4"/>
       <c r="Y944" s="4"/>
     </row>
-    <row r="945" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -27686,7 +27686,7 @@
       <c r="X945" s="4"/>
       <c r="Y945" s="4"/>
     </row>
-    <row r="946" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -27713,7 +27713,7 @@
       <c r="X946" s="4"/>
       <c r="Y946" s="4"/>
     </row>
-    <row r="947" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -27740,7 +27740,7 @@
       <c r="X947" s="4"/>
       <c r="Y947" s="4"/>
     </row>
-    <row r="948" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -27767,7 +27767,7 @@
       <c r="X948" s="4"/>
       <c r="Y948" s="4"/>
     </row>
-    <row r="949" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -27794,7 +27794,7 @@
       <c r="X949" s="4"/>
       <c r="Y949" s="4"/>
     </row>
-    <row r="950" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -27821,7 +27821,7 @@
       <c r="X950" s="4"/>
       <c r="Y950" s="4"/>
     </row>
-    <row r="951" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -27848,7 +27848,7 @@
       <c r="X951" s="4"/>
       <c r="Y951" s="4"/>
     </row>
-    <row r="952" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -27875,7 +27875,7 @@
       <c r="X952" s="4"/>
       <c r="Y952" s="4"/>
     </row>
-    <row r="953" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -27902,7 +27902,7 @@
       <c r="X953" s="4"/>
       <c r="Y953" s="4"/>
     </row>
-    <row r="954" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -27929,7 +27929,7 @@
       <c r="X954" s="4"/>
       <c r="Y954" s="4"/>
     </row>
-    <row r="955" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -27956,7 +27956,7 @@
       <c r="X955" s="4"/>
       <c r="Y955" s="4"/>
     </row>
-    <row r="956" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -27983,7 +27983,7 @@
       <c r="X956" s="4"/>
       <c r="Y956" s="4"/>
     </row>
-    <row r="957" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -28010,7 +28010,7 @@
       <c r="X957" s="4"/>
       <c r="Y957" s="4"/>
     </row>
-    <row r="958" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -28037,7 +28037,7 @@
       <c r="X958" s="4"/>
       <c r="Y958" s="4"/>
     </row>
-    <row r="959" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -28064,7 +28064,7 @@
       <c r="X959" s="4"/>
       <c r="Y959" s="4"/>
     </row>
-    <row r="960" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -28091,7 +28091,7 @@
       <c r="X960" s="4"/>
       <c r="Y960" s="4"/>
     </row>
-    <row r="961" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -28118,7 +28118,7 @@
       <c r="X961" s="4"/>
       <c r="Y961" s="4"/>
     </row>
-    <row r="962" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -28145,7 +28145,7 @@
       <c r="X962" s="4"/>
       <c r="Y962" s="4"/>
     </row>
-    <row r="963" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -28172,7 +28172,7 @@
       <c r="X963" s="4"/>
       <c r="Y963" s="4"/>
     </row>
-    <row r="964" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -28199,7 +28199,7 @@
       <c r="X964" s="4"/>
       <c r="Y964" s="4"/>
     </row>
-    <row r="965" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -28226,7 +28226,7 @@
       <c r="X965" s="4"/>
       <c r="Y965" s="4"/>
     </row>
-    <row r="966" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -28253,7 +28253,7 @@
       <c r="X966" s="4"/>
       <c r="Y966" s="4"/>
     </row>
-    <row r="967" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -28280,7 +28280,7 @@
       <c r="X967" s="4"/>
       <c r="Y967" s="4"/>
     </row>
-    <row r="968" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -28307,7 +28307,7 @@
       <c r="X968" s="4"/>
       <c r="Y968" s="4"/>
     </row>
-    <row r="969" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -28334,7 +28334,7 @@
       <c r="X969" s="4"/>
       <c r="Y969" s="4"/>
     </row>
-    <row r="970" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -28361,7 +28361,7 @@
       <c r="X970" s="4"/>
       <c r="Y970" s="4"/>
     </row>
-    <row r="971" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -28388,7 +28388,7 @@
       <c r="X971" s="4"/>
       <c r="Y971" s="4"/>
     </row>
-    <row r="972" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -28415,7 +28415,7 @@
       <c r="X972" s="4"/>
       <c r="Y972" s="4"/>
     </row>
-    <row r="973" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -28442,7 +28442,7 @@
       <c r="X973" s="4"/>
       <c r="Y973" s="4"/>
     </row>
-    <row r="974" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -28469,7 +28469,7 @@
       <c r="X974" s="4"/>
       <c r="Y974" s="4"/>
     </row>
-    <row r="975" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -28496,7 +28496,7 @@
       <c r="X975" s="4"/>
       <c r="Y975" s="4"/>
     </row>
-    <row r="976" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -28523,7 +28523,7 @@
       <c r="X976" s="4"/>
       <c r="Y976" s="4"/>
     </row>
-    <row r="977" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -28550,7 +28550,7 @@
       <c r="X977" s="4"/>
       <c r="Y977" s="4"/>
     </row>
-    <row r="978" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -28577,7 +28577,7 @@
       <c r="X978" s="4"/>
       <c r="Y978" s="4"/>
     </row>
-    <row r="979" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -28604,7 +28604,7 @@
       <c r="X979" s="4"/>
       <c r="Y979" s="4"/>
     </row>
-    <row r="980" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -28631,7 +28631,7 @@
       <c r="X980" s="4"/>
       <c r="Y980" s="4"/>
     </row>
-    <row r="981" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -28658,7 +28658,7 @@
       <c r="X981" s="4"/>
       <c r="Y981" s="4"/>
     </row>
-    <row r="982" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -28685,7 +28685,7 @@
       <c r="X982" s="4"/>
       <c r="Y982" s="4"/>
     </row>
-    <row r="983" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -28712,7 +28712,7 @@
       <c r="X983" s="4"/>
       <c r="Y983" s="4"/>
     </row>
-    <row r="984" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -28739,7 +28739,7 @@
       <c r="X984" s="4"/>
       <c r="Y984" s="4"/>
     </row>
-    <row r="985" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -28766,7 +28766,7 @@
       <c r="X985" s="4"/>
       <c r="Y985" s="4"/>
     </row>
-    <row r="986" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -28793,7 +28793,7 @@
       <c r="X986" s="4"/>
       <c r="Y986" s="4"/>
     </row>
-    <row r="987" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -28820,7 +28820,7 @@
       <c r="X987" s="4"/>
       <c r="Y987" s="4"/>
     </row>
-    <row r="988" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -28847,7 +28847,7 @@
       <c r="X988" s="4"/>
       <c r="Y988" s="4"/>
     </row>
-    <row r="989" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -28874,7 +28874,7 @@
       <c r="X989" s="4"/>
       <c r="Y989" s="4"/>
     </row>
-    <row r="990" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -28901,7 +28901,7 @@
       <c r="X990" s="4"/>
       <c r="Y990" s="4"/>
     </row>
-    <row r="991" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -28928,7 +28928,7 @@
       <c r="X991" s="4"/>
       <c r="Y991" s="4"/>
     </row>
-    <row r="992" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -28955,7 +28955,7 @@
       <c r="X992" s="4"/>
       <c r="Y992" s="4"/>
     </row>
-    <row r="993" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -28982,7 +28982,7 @@
       <c r="X993" s="4"/>
       <c r="Y993" s="4"/>
     </row>
-    <row r="994" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -29009,7 +29009,7 @@
       <c r="X994" s="4"/>
       <c r="Y994" s="4"/>
     </row>
-    <row r="995" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -29036,7 +29036,7 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
     </row>
-    <row r="996" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -29063,7 +29063,7 @@
       <c r="X996" s="4"/>
       <c r="Y996" s="4"/>
     </row>
-    <row r="997" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -29090,7 +29090,7 @@
       <c r="X997" s="4"/>
       <c r="Y997" s="4"/>
     </row>
-    <row r="998" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -29117,7 +29117,7 @@
       <c r="X998" s="4"/>
       <c r="Y998" s="4"/>
     </row>
-    <row r="999" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -29144,7 +29144,7 @@
       <c r="X999" s="4"/>
       <c r="Y999" s="4"/>
     </row>
-    <row r="1000" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -29171,7 +29171,7 @@
       <c r="X1000" s="4"/>
       <c r="Y1000" s="4"/>
     </row>
-    <row r="1001" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="3"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
@@ -29198,7 +29198,7 @@
       <c r="X1001" s="4"/>
       <c r="Y1001" s="4"/>
     </row>
-    <row r="1002" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="3"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
@@ -29225,7 +29225,7 @@
       <c r="X1002" s="4"/>
       <c r="Y1002" s="4"/>
     </row>
-    <row r="1003" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="3"/>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
@@ -29252,7 +29252,7 @@
       <c r="X1003" s="4"/>
       <c r="Y1003" s="4"/>
     </row>
-    <row r="1004" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="3"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
@@ -29279,7 +29279,7 @@
       <c r="X1004" s="4"/>
       <c r="Y1004" s="4"/>
     </row>
-    <row r="1005" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="3"/>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
@@ -29306,7 +29306,7 @@
       <c r="X1005" s="4"/>
       <c r="Y1005" s="4"/>
     </row>
-    <row r="1006" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="3"/>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
@@ -29333,7 +29333,7 @@
       <c r="X1006" s="4"/>
       <c r="Y1006" s="4"/>
     </row>
-    <row r="1007" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1007" s="3"/>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
@@ -29360,7 +29360,7 @@
       <c r="X1007" s="4"/>
       <c r="Y1007" s="4"/>
     </row>
-    <row r="1008" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1008" s="3"/>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
@@ -29387,7 +29387,7 @@
       <c r="X1008" s="4"/>
       <c r="Y1008" s="4"/>
     </row>
-    <row r="1009" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1009" s="3"/>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
@@ -29414,7 +29414,7 @@
       <c r="X1009" s="4"/>
       <c r="Y1009" s="4"/>
     </row>
-    <row r="1010" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1010" s="3"/>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
@@ -29441,7 +29441,7 @@
       <c r="X1010" s="4"/>
       <c r="Y1010" s="4"/>
     </row>
-    <row r="1011" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1011" s="3"/>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
@@ -29468,7 +29468,7 @@
       <c r="X1011" s="4"/>
       <c r="Y1011" s="4"/>
     </row>
-    <row r="1012" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1012" s="3"/>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
@@ -29495,7 +29495,7 @@
       <c r="X1012" s="4"/>
       <c r="Y1012" s="4"/>
     </row>
-    <row r="1013" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1013" s="3"/>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
@@ -29522,7 +29522,7 @@
       <c r="X1013" s="4"/>
       <c r="Y1013" s="4"/>
     </row>
-    <row r="1014" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1014" s="3"/>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
@@ -29549,7 +29549,7 @@
       <c r="X1014" s="4"/>
       <c r="Y1014" s="4"/>
     </row>
-    <row r="1015" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1015" s="3"/>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
@@ -29576,7 +29576,7 @@
       <c r="X1015" s="4"/>
       <c r="Y1015" s="4"/>
     </row>
-    <row r="1016" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1016" s="3"/>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
@@ -29603,7 +29603,7 @@
       <c r="X1016" s="4"/>
       <c r="Y1016" s="4"/>
     </row>
-    <row r="1017" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1017" s="3"/>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
@@ -29630,7 +29630,7 @@
       <c r="X1017" s="4"/>
       <c r="Y1017" s="4"/>
     </row>
-    <row r="1018" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1018" s="3"/>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
@@ -29657,7 +29657,7 @@
       <c r="X1018" s="4"/>
       <c r="Y1018" s="4"/>
     </row>
-    <row r="1019" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1019" s="3"/>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
@@ -29684,7 +29684,7 @@
       <c r="X1019" s="4"/>
       <c r="Y1019" s="4"/>
     </row>
-    <row r="1020" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1020" s="3"/>
       <c r="B1020" s="4"/>
       <c r="C1020" s="4"/>
@@ -29711,7 +29711,7 @@
       <c r="X1020" s="4"/>
       <c r="Y1020" s="4"/>
     </row>
-    <row r="1021" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1021" s="3"/>
       <c r="B1021" s="4"/>
       <c r="C1021" s="4"/>
@@ -29738,7 +29738,7 @@
       <c r="X1021" s="4"/>
       <c r="Y1021" s="4"/>
     </row>
-    <row r="1022" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1022" s="3"/>
       <c r="B1022" s="4"/>
       <c r="C1022" s="4"/>
@@ -29765,7 +29765,7 @@
       <c r="X1022" s="4"/>
       <c r="Y1022" s="4"/>
     </row>
-    <row r="1023" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1023" s="3"/>
       <c r="B1023" s="4"/>
       <c r="C1023" s="4"/>
@@ -29792,7 +29792,7 @@
       <c r="X1023" s="4"/>
       <c r="Y1023" s="4"/>
     </row>
-    <row r="1024" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1024" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1024" s="3"/>
       <c r="B1024" s="4"/>
       <c r="C1024" s="4"/>
@@ -29819,7 +29819,7 @@
       <c r="X1024" s="4"/>
       <c r="Y1024" s="4"/>
     </row>
-    <row r="1025" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1025" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1025" s="3"/>
       <c r="B1025" s="4"/>
       <c r="C1025" s="4"/>
@@ -29846,7 +29846,7 @@
       <c r="X1025" s="4"/>
       <c r="Y1025" s="4"/>
     </row>
-    <row r="1026" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1026" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1026" s="3"/>
       <c r="B1026" s="4"/>
       <c r="C1026" s="4"/>
@@ -29873,7 +29873,7 @@
       <c r="X1026" s="4"/>
       <c r="Y1026" s="4"/>
     </row>
-    <row r="1027" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1027" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1027" s="3"/>
       <c r="B1027" s="4"/>
       <c r="C1027" s="4"/>
@@ -29900,7 +29900,7 @@
       <c r="X1027" s="4"/>
       <c r="Y1027" s="4"/>
     </row>
-    <row r="1028" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1028" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1028" s="3"/>
       <c r="B1028" s="4"/>
       <c r="C1028" s="4"/>
@@ -29927,7 +29927,7 @@
       <c r="X1028" s="4"/>
       <c r="Y1028" s="4"/>
     </row>
-    <row r="1029" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1029" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1029" s="3"/>
       <c r="B1029" s="4"/>
       <c r="C1029" s="4"/>
@@ -29954,7 +29954,7 @@
       <c r="X1029" s="4"/>
       <c r="Y1029" s="4"/>
     </row>
-    <row r="1030" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1030" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1030" s="3"/>
       <c r="B1030" s="4"/>
       <c r="C1030" s="4"/>
@@ -29981,7 +29981,7 @@
       <c r="X1030" s="4"/>
       <c r="Y1030" s="4"/>
     </row>
-    <row r="1031" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1031" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1031" s="3"/>
       <c r="B1031" s="4"/>
       <c r="C1031" s="4"/>
@@ -30008,7 +30008,7 @@
       <c r="X1031" s="4"/>
       <c r="Y1031" s="4"/>
     </row>
-    <row r="1032" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1032" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1032" s="3"/>
       <c r="B1032" s="4"/>
       <c r="C1032" s="4"/>
@@ -30035,7 +30035,7 @@
       <c r="X1032" s="4"/>
       <c r="Y1032" s="4"/>
     </row>
-    <row r="1033" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1033" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1033" s="3"/>
       <c r="B1033" s="4"/>
       <c r="C1033" s="4"/>
@@ -30062,7 +30062,7 @@
       <c r="X1033" s="4"/>
       <c r="Y1033" s="4"/>
     </row>
-    <row r="1034" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1034" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1034" s="3"/>
       <c r="B1034" s="4"/>
       <c r="C1034" s="4"/>
@@ -30089,7 +30089,7 @@
       <c r="X1034" s="4"/>
       <c r="Y1034" s="4"/>
     </row>
-    <row r="1035" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1035" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1035" s="3"/>
       <c r="B1035" s="4"/>
       <c r="C1035" s="4"/>
@@ -30116,7 +30116,7 @@
       <c r="X1035" s="4"/>
       <c r="Y1035" s="4"/>
     </row>
-    <row r="1036" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1036" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1036" s="3"/>
       <c r="B1036" s="4"/>
       <c r="C1036" s="4"/>
@@ -30143,7 +30143,7 @@
       <c r="X1036" s="4"/>
       <c r="Y1036" s="4"/>
     </row>
-    <row r="1037" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1037" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1037" s="3"/>
       <c r="B1037" s="4"/>
       <c r="C1037" s="4"/>
@@ -30170,7 +30170,7 @@
       <c r="X1037" s="4"/>
       <c r="Y1037" s="4"/>
     </row>
-    <row r="1038" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1038" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1038" s="3"/>
       <c r="B1038" s="4"/>
       <c r="C1038" s="4"/>
@@ -30197,7 +30197,7 @@
       <c r="X1038" s="4"/>
       <c r="Y1038" s="4"/>
     </row>
-    <row r="1039" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1039" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1039" s="3"/>
       <c r="B1039" s="4"/>
       <c r="C1039" s="4"/>
@@ -30224,7 +30224,7 @@
       <c r="X1039" s="4"/>
       <c r="Y1039" s="4"/>
     </row>
-    <row r="1040" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1040" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1040" s="3"/>
       <c r="B1040" s="4"/>
       <c r="C1040" s="4"/>
@@ -30251,7 +30251,7 @@
       <c r="X1040" s="4"/>
       <c r="Y1040" s="4"/>
     </row>
-    <row r="1041" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1041" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1041" s="3"/>
       <c r="B1041" s="4"/>
       <c r="C1041" s="4"/>
@@ -30278,7 +30278,7 @@
       <c r="X1041" s="4"/>
       <c r="Y1041" s="4"/>
     </row>
-    <row r="1042" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1042" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1042" s="3"/>
       <c r="B1042" s="4"/>
       <c r="C1042" s="4"/>
@@ -30305,7 +30305,7 @@
       <c r="X1042" s="4"/>
       <c r="Y1042" s="4"/>
     </row>
-    <row r="1043" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1043" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1043" s="3"/>
       <c r="B1043" s="4"/>
       <c r="C1043" s="4"/>
@@ -30332,7 +30332,7 @@
       <c r="X1043" s="4"/>
       <c r="Y1043" s="4"/>
     </row>
-    <row r="1044" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1044" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1044" s="3"/>
       <c r="B1044" s="4"/>
       <c r="C1044" s="4"/>
@@ -30359,7 +30359,7 @@
       <c r="X1044" s="4"/>
       <c r="Y1044" s="4"/>
     </row>
-    <row r="1045" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1045" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1045" s="3"/>
       <c r="B1045" s="4"/>
       <c r="C1045" s="4"/>
@@ -30386,7 +30386,7 @@
       <c r="X1045" s="4"/>
       <c r="Y1045" s="4"/>
     </row>
-    <row r="1046" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1046" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1046" s="3"/>
       <c r="B1046" s="4"/>
       <c r="C1046" s="4"/>
@@ -30413,7 +30413,7 @@
       <c r="X1046" s="4"/>
       <c r="Y1046" s="4"/>
     </row>
-    <row r="1047" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1047" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1047" s="3"/>
       <c r="B1047" s="4"/>
       <c r="C1047" s="4"/>
@@ -30440,7 +30440,7 @@
       <c r="X1047" s="4"/>
       <c r="Y1047" s="4"/>
     </row>
-    <row r="1048" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1048" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1048" s="3"/>
       <c r="B1048" s="4"/>
       <c r="C1048" s="4"/>
@@ -30467,7 +30467,7 @@
       <c r="X1048" s="4"/>
       <c r="Y1048" s="4"/>
     </row>
-    <row r="1049" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1049" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1049" s="3"/>
       <c r="B1049" s="4"/>
       <c r="C1049" s="4"/>
@@ -30494,7 +30494,7 @@
       <c r="X1049" s="4"/>
       <c r="Y1049" s="4"/>
     </row>
-    <row r="1050" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1050" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1050" s="3"/>
       <c r="B1050" s="4"/>
       <c r="C1050" s="4"/>
@@ -30521,7 +30521,7 @@
       <c r="X1050" s="4"/>
       <c r="Y1050" s="4"/>
     </row>
-    <row r="1051" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1051" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1051" s="3"/>
       <c r="B1051" s="4"/>
       <c r="C1051" s="4"/>
@@ -30548,7 +30548,7 @@
       <c r="X1051" s="4"/>
       <c r="Y1051" s="4"/>
     </row>
-    <row r="1052" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1052" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1052" s="3"/>
       <c r="B1052" s="4"/>
       <c r="C1052" s="4"/>
@@ -30575,7 +30575,7 @@
       <c r="X1052" s="4"/>
       <c r="Y1052" s="4"/>
     </row>
-    <row r="1053" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1053" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1053" s="3"/>
       <c r="B1053" s="4"/>
       <c r="C1053" s="4"/>
@@ -30602,7 +30602,7 @@
       <c r="X1053" s="4"/>
       <c r="Y1053" s="4"/>
     </row>
-    <row r="1054" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1054" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1054" s="3"/>
       <c r="B1054" s="4"/>
       <c r="C1054" s="4"/>
@@ -30629,7 +30629,7 @@
       <c r="X1054" s="4"/>
       <c r="Y1054" s="4"/>
     </row>
-    <row r="1055" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1055" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1055" s="3"/>
       <c r="B1055" s="4"/>
       <c r="C1055" s="4"/>
@@ -30656,7 +30656,7 @@
       <c r="X1055" s="4"/>
       <c r="Y1055" s="4"/>
     </row>
-    <row r="1056" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1056" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1056" s="3"/>
       <c r="B1056" s="4"/>
       <c r="C1056" s="4"/>
@@ -30683,7 +30683,7 @@
       <c r="X1056" s="4"/>
       <c r="Y1056" s="4"/>
     </row>
-    <row r="1057" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1057" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1057" s="3"/>
       <c r="B1057" s="4"/>
       <c r="C1057" s="4"/>
@@ -30710,7 +30710,7 @@
       <c r="X1057" s="4"/>
       <c r="Y1057" s="4"/>
     </row>
-    <row r="1058" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1058" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1058" s="3"/>
       <c r="B1058" s="4"/>
       <c r="C1058" s="4"/>
@@ -30737,7 +30737,7 @@
       <c r="X1058" s="4"/>
       <c r="Y1058" s="4"/>
     </row>
-    <row r="1059" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1059" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1059" s="3"/>
       <c r="B1059" s="4"/>
       <c r="C1059" s="4"/>
@@ -30764,7 +30764,7 @@
       <c r="X1059" s="4"/>
       <c r="Y1059" s="4"/>
     </row>
-    <row r="1060" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1060" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1060" s="3"/>
       <c r="B1060" s="4"/>
       <c r="C1060" s="4"/>
@@ -30791,7 +30791,7 @@
       <c r="X1060" s="4"/>
       <c r="Y1060" s="4"/>
     </row>
-    <row r="1061" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1061" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1061" s="3"/>
       <c r="B1061" s="4"/>
       <c r="C1061" s="4"/>
@@ -30818,7 +30818,7 @@
       <c r="X1061" s="4"/>
       <c r="Y1061" s="4"/>
     </row>
-    <row r="1062" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1062" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1062" s="3"/>
       <c r="B1062" s="4"/>
       <c r="C1062" s="4"/>
@@ -30845,7 +30845,7 @@
       <c r="X1062" s="4"/>
       <c r="Y1062" s="4"/>
     </row>
-    <row r="1063" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1063" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1063" s="3"/>
       <c r="B1063" s="4"/>
       <c r="C1063" s="4"/>
@@ -30872,7 +30872,7 @@
       <c r="X1063" s="4"/>
       <c r="Y1063" s="4"/>
     </row>
-    <row r="1064" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1064" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1064" s="3"/>
       <c r="B1064" s="4"/>
       <c r="C1064" s="4"/>
@@ -30899,7 +30899,7 @@
       <c r="X1064" s="4"/>
       <c r="Y1064" s="4"/>
     </row>
-    <row r="1065" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1065" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1065" s="3"/>
       <c r="B1065" s="4"/>
       <c r="C1065" s="4"/>
@@ -30926,7 +30926,7 @@
       <c r="X1065" s="4"/>
       <c r="Y1065" s="4"/>
     </row>
-    <row r="1066" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1066" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1066" s="3"/>
       <c r="B1066" s="4"/>
       <c r="C1066" s="4"/>
@@ -30953,7 +30953,7 @@
       <c r="X1066" s="4"/>
       <c r="Y1066" s="4"/>
     </row>
-    <row r="1067" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1067" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1067" s="3"/>
       <c r="B1067" s="4"/>
       <c r="C1067" s="4"/>
@@ -30980,7 +30980,7 @@
       <c r="X1067" s="4"/>
       <c r="Y1067" s="4"/>
     </row>
-    <row r="1068" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1068" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1068" s="3"/>
       <c r="B1068" s="4"/>
       <c r="C1068" s="4"/>
@@ -31007,7 +31007,7 @@
       <c r="X1068" s="4"/>
       <c r="Y1068" s="4"/>
     </row>
-    <row r="1069" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1069" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1069" s="3"/>
       <c r="B1069" s="4"/>
       <c r="C1069" s="4"/>
@@ -31034,7 +31034,7 @@
       <c r="X1069" s="4"/>
       <c r="Y1069" s="4"/>
     </row>
-    <row r="1070" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1070" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1070" s="3"/>
       <c r="B1070" s="4"/>
       <c r="C1070" s="4"/>
@@ -31061,7 +31061,7 @@
       <c r="X1070" s="4"/>
       <c r="Y1070" s="4"/>
     </row>
-    <row r="1071" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1071" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1071" s="3"/>
       <c r="B1071" s="4"/>
       <c r="C1071" s="4"/>
@@ -31088,7 +31088,7 @@
       <c r="X1071" s="4"/>
       <c r="Y1071" s="4"/>
     </row>
-    <row r="1072" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1072" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1072" s="3"/>
       <c r="B1072" s="4"/>
       <c r="C1072" s="4"/>
@@ -31115,7 +31115,7 @@
       <c r="X1072" s="4"/>
       <c r="Y1072" s="4"/>
     </row>
-    <row r="1073" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1073" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1073" s="3"/>
       <c r="B1073" s="4"/>
       <c r="C1073" s="4"/>
@@ -31142,7 +31142,7 @@
       <c r="X1073" s="4"/>
       <c r="Y1073" s="4"/>
     </row>
-    <row r="1074" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1074" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1074" s="3"/>
       <c r="B1074" s="4"/>
       <c r="C1074" s="4"/>
@@ -31169,7 +31169,7 @@
       <c r="X1074" s="4"/>
       <c r="Y1074" s="4"/>
     </row>
-    <row r="1075" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1075" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1075" s="3"/>
       <c r="B1075" s="4"/>
       <c r="C1075" s="4"/>
@@ -31196,7 +31196,7 @@
       <c r="X1075" s="4"/>
       <c r="Y1075" s="4"/>
     </row>
-    <row r="1076" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1076" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1076" s="3"/>
       <c r="B1076" s="4"/>
       <c r="C1076" s="4"/>
@@ -31223,7 +31223,7 @@
       <c r="X1076" s="4"/>
       <c r="Y1076" s="4"/>
     </row>
-    <row r="1077" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+    <row r="1077" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1077" s="3"/>
       <c r="B1077" s="4"/>
       <c r="C1077" s="4"/>
